--- a/Vendor Registration.xlsx
+++ b/Vendor Registration.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://expertindus-my.sharepoint.com/personal/bd07_expertindus_com/Documents/Desktop/Deploy/client_detail/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="551" documentId="8_{9E14235E-1F52-4A39-A231-C1E5828BF764}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{259A7ECD-EBA1-48D0-A09F-0F6BE0F34B23}"/>
+  <xr:revisionPtr revIDLastSave="555" documentId="8_{9E14235E-1F52-4A39-A231-C1E5828BF764}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B0441591-029D-4990-A10D-DD1899D3B41E}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{5DBEB9D1-E9EA-4357-B70C-B774DA78555F}"/>
   </bookViews>
@@ -12128,10 +12128,10 @@
   <dimension ref="A1:L1048574"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B164" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D190" sqref="D190"/>
+      <selection pane="bottomRight" activeCell="D201" sqref="D201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/Vendor Registration.xlsx
+++ b/Vendor Registration.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://expertindus-my.sharepoint.com/personal/bd07_expertindus_com/Documents/Desktop/Deploy/client_detail/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://expertindus-my.sharepoint.com/personal/bd07_expertindus_com/Documents/Lead Mangement/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="555" documentId="8_{9E14235E-1F52-4A39-A231-C1E5828BF764}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B0441591-029D-4990-A10D-DD1899D3B41E}"/>
+  <xr:revisionPtr revIDLastSave="547" documentId="8_{9E14235E-1F52-4A39-A231-C1E5828BF764}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4A50856C-6F8C-4670-845F-462E9E3DE9B3}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{5DBEB9D1-E9EA-4357-B70C-B774DA78555F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5DBEB9D1-E9EA-4357-B70C-B774DA78555F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId4"/>
+    <pivotCache cacheId="2" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -3308,7 +3308,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3452,6 +3452,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3600,10 +3601,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6533,7 +6530,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D4A2787F-0843-4C66-A22C-DC8121C2F4A6}" name="PivotTable7" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D4A2787F-0843-4C66-A22C-DC8121C2F4A6}" name="PivotTable7" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
   <location ref="A3:C386" firstHeaderRow="2" firstDataRow="2" firstDataCol="2"/>
   <pivotFields count="12">
     <pivotField compact="0" outline="0" showAll="0"/>
@@ -8430,7 +8427,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF22A646-8832-4B60-8E46-A37F3286CCED}">
   <dimension ref="A3:C392"/>
   <sheetViews>
-    <sheetView topLeftCell="A214" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A214" workbookViewId="0">
       <selection activeCell="A224" sqref="A224"/>
     </sheetView>
   </sheetViews>
@@ -8464,7 +8461,7 @@
       <c r="B5" t="s">
         <v>98</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="55">
         <v>1</v>
       </c>
     </row>
@@ -8472,7 +8469,7 @@
       <c r="A6" t="s">
         <v>596</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="55">
         <v>1</v>
       </c>
     </row>
@@ -8483,7 +8480,7 @@
       <c r="B7" t="s">
         <v>16</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="55">
         <v>1</v>
       </c>
     </row>
@@ -8491,7 +8488,7 @@
       <c r="A8" t="s">
         <v>597</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="55">
         <v>1</v>
       </c>
     </row>
@@ -8502,7 +8499,7 @@
       <c r="B9" t="s">
         <v>22</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="55">
         <v>1</v>
       </c>
     </row>
@@ -8510,7 +8507,7 @@
       <c r="A10" t="s">
         <v>598</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="55">
         <v>1</v>
       </c>
     </row>
@@ -8521,7 +8518,7 @@
       <c r="B11" t="s">
         <v>591</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="55">
         <v>1</v>
       </c>
     </row>
@@ -8529,7 +8526,7 @@
       <c r="A12" t="s">
         <v>599</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="55">
         <v>1</v>
       </c>
     </row>
@@ -8540,7 +8537,7 @@
       <c r="B13" t="s">
         <v>591</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="55">
         <v>1</v>
       </c>
     </row>
@@ -8548,7 +8545,7 @@
       <c r="A14" t="s">
         <v>600</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="55">
         <v>1</v>
       </c>
     </row>
@@ -8559,7 +8556,7 @@
       <c r="B15" t="s">
         <v>591</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="55">
         <v>1</v>
       </c>
     </row>
@@ -8567,7 +8564,7 @@
       <c r="A16" t="s">
         <v>601</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="55">
         <v>1</v>
       </c>
     </row>
@@ -8578,7 +8575,7 @@
       <c r="B17" t="s">
         <v>22</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="55">
         <v>1</v>
       </c>
     </row>
@@ -8586,7 +8583,7 @@
       <c r="A18" t="s">
         <v>602</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="55">
         <v>1</v>
       </c>
     </row>
@@ -8597,7 +8594,7 @@
       <c r="B19" t="s">
         <v>16</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="55">
         <v>1</v>
       </c>
     </row>
@@ -8605,7 +8602,7 @@
       <c r="A20" t="s">
         <v>603</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="55">
         <v>1</v>
       </c>
     </row>
@@ -8616,7 +8613,7 @@
       <c r="B21" t="s">
         <v>16</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="55">
         <v>1</v>
       </c>
     </row>
@@ -8624,7 +8621,7 @@
       <c r="A22" t="s">
         <v>604</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="55">
         <v>1</v>
       </c>
     </row>
@@ -8635,7 +8632,7 @@
       <c r="B23" t="s">
         <v>22</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="55">
         <v>1</v>
       </c>
     </row>
@@ -8643,7 +8640,7 @@
       <c r="A24" t="s">
         <v>605</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="55">
         <v>1</v>
       </c>
     </row>
@@ -8654,7 +8651,7 @@
       <c r="B25" t="s">
         <v>591</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="55">
         <v>1</v>
       </c>
     </row>
@@ -8662,7 +8659,7 @@
       <c r="A26" t="s">
         <v>606</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="55">
         <v>1</v>
       </c>
     </row>
@@ -8673,7 +8670,7 @@
       <c r="B27" t="s">
         <v>591</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="55">
         <v>1</v>
       </c>
     </row>
@@ -8681,7 +8678,7 @@
       <c r="A28" t="s">
         <v>607</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="55">
         <v>1</v>
       </c>
     </row>
@@ -8692,7 +8689,7 @@
       <c r="B29" t="s">
         <v>591</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="55">
         <v>1</v>
       </c>
     </row>
@@ -8700,7 +8697,7 @@
       <c r="A30" t="s">
         <v>608</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="55">
         <v>1</v>
       </c>
     </row>
@@ -8711,7 +8708,7 @@
       <c r="B31" t="s">
         <v>591</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="55">
         <v>1</v>
       </c>
     </row>
@@ -8719,7 +8716,7 @@
       <c r="A32" t="s">
         <v>609</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="55">
         <v>1</v>
       </c>
     </row>
@@ -8730,7 +8727,7 @@
       <c r="B33" t="s">
         <v>22</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="55">
         <v>1</v>
       </c>
     </row>
@@ -8738,7 +8735,7 @@
       <c r="A34" t="s">
         <v>610</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="55">
         <v>1</v>
       </c>
     </row>
@@ -8749,7 +8746,7 @@
       <c r="B35" t="s">
         <v>22</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="55">
         <v>1</v>
       </c>
     </row>
@@ -8757,7 +8754,7 @@
       <c r="A36" t="s">
         <v>611</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="55">
         <v>1</v>
       </c>
     </row>
@@ -8768,7 +8765,7 @@
       <c r="B37" t="s">
         <v>591</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="55">
         <v>1</v>
       </c>
     </row>
@@ -8776,7 +8773,7 @@
       <c r="A38" t="s">
         <v>612</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="55">
         <v>1</v>
       </c>
     </row>
@@ -8787,7 +8784,7 @@
       <c r="B39" t="s">
         <v>16</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="55">
         <v>1</v>
       </c>
     </row>
@@ -8795,7 +8792,7 @@
       <c r="A40" t="s">
         <v>613</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="55">
         <v>1</v>
       </c>
     </row>
@@ -8806,7 +8803,7 @@
       <c r="B41" t="s">
         <v>22</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="55">
         <v>1</v>
       </c>
     </row>
@@ -8814,7 +8811,7 @@
       <c r="A42" t="s">
         <v>614</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="55">
         <v>1</v>
       </c>
     </row>
@@ -8825,7 +8822,7 @@
       <c r="B43" t="s">
         <v>22</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="55">
         <v>1</v>
       </c>
     </row>
@@ -8833,7 +8830,7 @@
       <c r="A44" t="s">
         <v>615</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="55">
         <v>1</v>
       </c>
     </row>
@@ -8844,7 +8841,7 @@
       <c r="B45" t="s">
         <v>16</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="55">
         <v>1</v>
       </c>
     </row>
@@ -8852,7 +8849,7 @@
       <c r="A46" t="s">
         <v>616</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="55">
         <v>1</v>
       </c>
     </row>
@@ -8863,7 +8860,7 @@
       <c r="B47" t="s">
         <v>22</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="55">
         <v>1</v>
       </c>
     </row>
@@ -8871,7 +8868,7 @@
       <c r="A48" t="s">
         <v>617</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="55">
         <v>1</v>
       </c>
     </row>
@@ -8882,7 +8879,7 @@
       <c r="B49" t="s">
         <v>22</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="55">
         <v>1</v>
       </c>
     </row>
@@ -8890,7 +8887,7 @@
       <c r="A50" t="s">
         <v>618</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="55">
         <v>1</v>
       </c>
     </row>
@@ -8901,7 +8898,7 @@
       <c r="B51" t="s">
         <v>22</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="55">
         <v>1</v>
       </c>
     </row>
@@ -8909,7 +8906,7 @@
       <c r="A52" t="s">
         <v>619</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="55">
         <v>1</v>
       </c>
     </row>
@@ -8920,7 +8917,7 @@
       <c r="B53" t="s">
         <v>591</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="55">
         <v>1</v>
       </c>
     </row>
@@ -8928,7 +8925,7 @@
       <c r="A54" t="s">
         <v>620</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="55">
         <v>1</v>
       </c>
     </row>
@@ -8939,7 +8936,7 @@
       <c r="B55" t="s">
         <v>22</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="55">
         <v>1</v>
       </c>
     </row>
@@ -8947,7 +8944,7 @@
       <c r="A56" t="s">
         <v>621</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="55">
         <v>1</v>
       </c>
     </row>
@@ -8958,7 +8955,7 @@
       <c r="B57" t="s">
         <v>22</v>
       </c>
-      <c r="C57">
+      <c r="C57" s="55">
         <v>1</v>
       </c>
     </row>
@@ -8966,7 +8963,7 @@
       <c r="A58" t="s">
         <v>622</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="55">
         <v>1</v>
       </c>
     </row>
@@ -8977,7 +8974,7 @@
       <c r="B59" t="s">
         <v>16</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="55">
         <v>1</v>
       </c>
     </row>
@@ -8985,7 +8982,7 @@
       <c r="A60" t="s">
         <v>623</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="55">
         <v>1</v>
       </c>
     </row>
@@ -8996,7 +8993,7 @@
       <c r="B61" t="s">
         <v>22</v>
       </c>
-      <c r="C61">
+      <c r="C61" s="55">
         <v>1</v>
       </c>
     </row>
@@ -9004,7 +9001,7 @@
       <c r="A62" t="s">
         <v>624</v>
       </c>
-      <c r="C62">
+      <c r="C62" s="55">
         <v>1</v>
       </c>
     </row>
@@ -9015,7 +9012,7 @@
       <c r="B63" t="s">
         <v>591</v>
       </c>
-      <c r="C63">
+      <c r="C63" s="55">
         <v>1</v>
       </c>
     </row>
@@ -9023,7 +9020,7 @@
       <c r="A64" t="s">
         <v>625</v>
       </c>
-      <c r="C64">
+      <c r="C64" s="55">
         <v>1</v>
       </c>
     </row>
@@ -9034,7 +9031,7 @@
       <c r="B65" t="s">
         <v>591</v>
       </c>
-      <c r="C65">
+      <c r="C65" s="55">
         <v>1</v>
       </c>
     </row>
@@ -9042,7 +9039,7 @@
       <c r="A66" t="s">
         <v>626</v>
       </c>
-      <c r="C66">
+      <c r="C66" s="55">
         <v>1</v>
       </c>
     </row>
@@ -9053,7 +9050,7 @@
       <c r="B67" t="s">
         <v>98</v>
       </c>
-      <c r="C67">
+      <c r="C67" s="55">
         <v>1</v>
       </c>
     </row>
@@ -9061,7 +9058,7 @@
       <c r="A68" t="s">
         <v>627</v>
       </c>
-      <c r="C68">
+      <c r="C68" s="55">
         <v>1</v>
       </c>
     </row>
@@ -9072,7 +9069,7 @@
       <c r="B69" t="s">
         <v>22</v>
       </c>
-      <c r="C69">
+      <c r="C69" s="55">
         <v>1</v>
       </c>
     </row>
@@ -9080,7 +9077,7 @@
       <c r="A70" t="s">
         <v>628</v>
       </c>
-      <c r="C70">
+      <c r="C70" s="55">
         <v>1</v>
       </c>
     </row>
@@ -9091,7 +9088,7 @@
       <c r="B71" t="s">
         <v>16</v>
       </c>
-      <c r="C71">
+      <c r="C71" s="55">
         <v>1</v>
       </c>
     </row>
@@ -9099,7 +9096,7 @@
       <c r="A72" t="s">
         <v>629</v>
       </c>
-      <c r="C72">
+      <c r="C72" s="55">
         <v>1</v>
       </c>
     </row>
@@ -9110,7 +9107,7 @@
       <c r="B73" t="s">
         <v>591</v>
       </c>
-      <c r="C73">
+      <c r="C73" s="55">
         <v>1</v>
       </c>
     </row>
@@ -9118,7 +9115,7 @@
       <c r="A74" t="s">
         <v>630</v>
       </c>
-      <c r="C74">
+      <c r="C74" s="55">
         <v>1</v>
       </c>
     </row>
@@ -9129,7 +9126,7 @@
       <c r="B75" t="s">
         <v>98</v>
       </c>
-      <c r="C75">
+      <c r="C75" s="55">
         <v>1</v>
       </c>
     </row>
@@ -9137,7 +9134,7 @@
       <c r="A76" t="s">
         <v>631</v>
       </c>
-      <c r="C76">
+      <c r="C76" s="55">
         <v>1</v>
       </c>
     </row>
@@ -9148,7 +9145,7 @@
       <c r="B77" t="s">
         <v>22</v>
       </c>
-      <c r="C77">
+      <c r="C77" s="55">
         <v>1</v>
       </c>
     </row>
@@ -9156,7 +9153,7 @@
       <c r="A78" t="s">
         <v>632</v>
       </c>
-      <c r="C78">
+      <c r="C78" s="55">
         <v>1</v>
       </c>
     </row>
@@ -9167,7 +9164,7 @@
       <c r="B79" t="s">
         <v>591</v>
       </c>
-      <c r="C79">
+      <c r="C79" s="55">
         <v>1</v>
       </c>
     </row>
@@ -9175,7 +9172,7 @@
       <c r="A80" t="s">
         <v>633</v>
       </c>
-      <c r="C80">
+      <c r="C80" s="55">
         <v>1</v>
       </c>
     </row>
@@ -9186,7 +9183,7 @@
       <c r="B81" t="s">
         <v>16</v>
       </c>
-      <c r="C81">
+      <c r="C81" s="55">
         <v>1</v>
       </c>
     </row>
@@ -9194,7 +9191,7 @@
       <c r="A82" t="s">
         <v>634</v>
       </c>
-      <c r="C82">
+      <c r="C82" s="55">
         <v>1</v>
       </c>
     </row>
@@ -9205,7 +9202,7 @@
       <c r="B83" t="s">
         <v>591</v>
       </c>
-      <c r="C83">
+      <c r="C83" s="55">
         <v>1</v>
       </c>
     </row>
@@ -9213,7 +9210,7 @@
       <c r="A84" t="s">
         <v>635</v>
       </c>
-      <c r="C84">
+      <c r="C84" s="55">
         <v>1</v>
       </c>
     </row>
@@ -9224,7 +9221,7 @@
       <c r="B85" t="s">
         <v>98</v>
       </c>
-      <c r="C85">
+      <c r="C85" s="55">
         <v>1</v>
       </c>
     </row>
@@ -9232,7 +9229,7 @@
       <c r="A86" t="s">
         <v>636</v>
       </c>
-      <c r="C86">
+      <c r="C86" s="55">
         <v>1</v>
       </c>
     </row>
@@ -9243,7 +9240,7 @@
       <c r="B87" t="s">
         <v>16</v>
       </c>
-      <c r="C87">
+      <c r="C87" s="55">
         <v>1</v>
       </c>
     </row>
@@ -9251,7 +9248,7 @@
       <c r="A88" t="s">
         <v>637</v>
       </c>
-      <c r="C88">
+      <c r="C88" s="55">
         <v>1</v>
       </c>
     </row>
@@ -9262,7 +9259,7 @@
       <c r="B89" t="s">
         <v>22</v>
       </c>
-      <c r="C89">
+      <c r="C89" s="55">
         <v>1</v>
       </c>
     </row>
@@ -9270,7 +9267,7 @@
       <c r="A90" t="s">
         <v>638</v>
       </c>
-      <c r="C90">
+      <c r="C90" s="55">
         <v>1</v>
       </c>
     </row>
@@ -9281,7 +9278,7 @@
       <c r="B91" t="s">
         <v>16</v>
       </c>
-      <c r="C91">
+      <c r="C91" s="55">
         <v>1</v>
       </c>
     </row>
@@ -9289,7 +9286,7 @@
       <c r="A92" t="s">
         <v>639</v>
       </c>
-      <c r="C92">
+      <c r="C92" s="55">
         <v>1</v>
       </c>
     </row>
@@ -9300,7 +9297,7 @@
       <c r="B93" t="s">
         <v>16</v>
       </c>
-      <c r="C93">
+      <c r="C93" s="55">
         <v>1</v>
       </c>
     </row>
@@ -9308,7 +9305,7 @@
       <c r="A94" t="s">
         <v>640</v>
       </c>
-      <c r="C94">
+      <c r="C94" s="55">
         <v>1</v>
       </c>
     </row>
@@ -9319,7 +9316,7 @@
       <c r="B95" t="s">
         <v>16</v>
       </c>
-      <c r="C95">
+      <c r="C95" s="55">
         <v>1</v>
       </c>
     </row>
@@ -9327,7 +9324,7 @@
       <c r="A96" t="s">
         <v>641</v>
       </c>
-      <c r="C96">
+      <c r="C96" s="55">
         <v>1</v>
       </c>
     </row>
@@ -9338,7 +9335,7 @@
       <c r="B97" t="s">
         <v>22</v>
       </c>
-      <c r="C97">
+      <c r="C97" s="55">
         <v>1</v>
       </c>
     </row>
@@ -9346,7 +9343,7 @@
       <c r="A98" t="s">
         <v>642</v>
       </c>
-      <c r="C98">
+      <c r="C98" s="55">
         <v>1</v>
       </c>
     </row>
@@ -9357,7 +9354,7 @@
       <c r="B99" t="s">
         <v>22</v>
       </c>
-      <c r="C99">
+      <c r="C99" s="55">
         <v>1</v>
       </c>
     </row>
@@ -9365,7 +9362,7 @@
       <c r="A100" t="s">
         <v>643</v>
       </c>
-      <c r="C100">
+      <c r="C100" s="55">
         <v>1</v>
       </c>
     </row>
@@ -9376,7 +9373,7 @@
       <c r="B101" t="s">
         <v>98</v>
       </c>
-      <c r="C101">
+      <c r="C101" s="55">
         <v>1</v>
       </c>
     </row>
@@ -9384,7 +9381,7 @@
       <c r="A102" t="s">
         <v>644</v>
       </c>
-      <c r="C102">
+      <c r="C102" s="55">
         <v>1</v>
       </c>
     </row>
@@ -9395,7 +9392,7 @@
       <c r="B103" t="s">
         <v>16</v>
       </c>
-      <c r="C103">
+      <c r="C103" s="55">
         <v>1</v>
       </c>
     </row>
@@ -9403,7 +9400,7 @@
       <c r="A104" t="s">
         <v>645</v>
       </c>
-      <c r="C104">
+      <c r="C104" s="55">
         <v>1</v>
       </c>
     </row>
@@ -9414,7 +9411,7 @@
       <c r="B105" t="s">
         <v>16</v>
       </c>
-      <c r="C105">
+      <c r="C105" s="55">
         <v>1</v>
       </c>
     </row>
@@ -9422,7 +9419,7 @@
       <c r="A106" t="s">
         <v>646</v>
       </c>
-      <c r="C106">
+      <c r="C106" s="55">
         <v>1</v>
       </c>
     </row>
@@ -9433,7 +9430,7 @@
       <c r="B107" t="s">
         <v>16</v>
       </c>
-      <c r="C107">
+      <c r="C107" s="55">
         <v>1</v>
       </c>
     </row>
@@ -9441,7 +9438,7 @@
       <c r="A108" t="s">
         <v>647</v>
       </c>
-      <c r="C108">
+      <c r="C108" s="55">
         <v>1</v>
       </c>
     </row>
@@ -9452,7 +9449,7 @@
       <c r="B109" t="s">
         <v>591</v>
       </c>
-      <c r="C109">
+      <c r="C109" s="55">
         <v>1</v>
       </c>
     </row>
@@ -9460,7 +9457,7 @@
       <c r="A110" t="s">
         <v>648</v>
       </c>
-      <c r="C110">
+      <c r="C110" s="55">
         <v>1</v>
       </c>
     </row>
@@ -9471,7 +9468,7 @@
       <c r="B111" t="s">
         <v>591</v>
       </c>
-      <c r="C111">
+      <c r="C111" s="55">
         <v>1</v>
       </c>
     </row>
@@ -9479,7 +9476,7 @@
       <c r="A112" t="s">
         <v>649</v>
       </c>
-      <c r="C112">
+      <c r="C112" s="55">
         <v>1</v>
       </c>
     </row>
@@ -9490,7 +9487,7 @@
       <c r="B113" t="s">
         <v>22</v>
       </c>
-      <c r="C113">
+      <c r="C113" s="55">
         <v>1</v>
       </c>
     </row>
@@ -9498,7 +9495,7 @@
       <c r="A114" t="s">
         <v>650</v>
       </c>
-      <c r="C114">
+      <c r="C114" s="55">
         <v>1</v>
       </c>
     </row>
@@ -9509,7 +9506,7 @@
       <c r="B115" t="s">
         <v>591</v>
       </c>
-      <c r="C115">
+      <c r="C115" s="55">
         <v>1</v>
       </c>
     </row>
@@ -9517,7 +9514,7 @@
       <c r="A116" t="s">
         <v>651</v>
       </c>
-      <c r="C116">
+      <c r="C116" s="55">
         <v>1</v>
       </c>
     </row>
@@ -9528,7 +9525,7 @@
       <c r="B117" t="s">
         <v>98</v>
       </c>
-      <c r="C117">
+      <c r="C117" s="55">
         <v>1</v>
       </c>
     </row>
@@ -9536,7 +9533,7 @@
       <c r="A118" t="s">
         <v>652</v>
       </c>
-      <c r="C118">
+      <c r="C118" s="55">
         <v>1</v>
       </c>
     </row>
@@ -9547,7 +9544,7 @@
       <c r="B119" t="s">
         <v>22</v>
       </c>
-      <c r="C119">
+      <c r="C119" s="55">
         <v>1</v>
       </c>
     </row>
@@ -9555,7 +9552,7 @@
       <c r="A120" t="s">
         <v>653</v>
       </c>
-      <c r="C120">
+      <c r="C120" s="55">
         <v>1</v>
       </c>
     </row>
@@ -9566,7 +9563,7 @@
       <c r="B121" t="s">
         <v>22</v>
       </c>
-      <c r="C121">
+      <c r="C121" s="55">
         <v>1</v>
       </c>
     </row>
@@ -9574,7 +9571,7 @@
       <c r="A122" t="s">
         <v>654</v>
       </c>
-      <c r="C122">
+      <c r="C122" s="55">
         <v>1</v>
       </c>
     </row>
@@ -9585,7 +9582,7 @@
       <c r="B123" t="s">
         <v>22</v>
       </c>
-      <c r="C123">
+      <c r="C123" s="55">
         <v>1</v>
       </c>
     </row>
@@ -9593,7 +9590,7 @@
       <c r="A124" t="s">
         <v>655</v>
       </c>
-      <c r="C124">
+      <c r="C124" s="55">
         <v>1</v>
       </c>
     </row>
@@ -9604,7 +9601,7 @@
       <c r="B125" t="s">
         <v>16</v>
       </c>
-      <c r="C125">
+      <c r="C125" s="55">
         <v>1</v>
       </c>
     </row>
@@ -9612,7 +9609,7 @@
       <c r="A126" t="s">
         <v>656</v>
       </c>
-      <c r="C126">
+      <c r="C126" s="55">
         <v>1</v>
       </c>
     </row>
@@ -9623,7 +9620,7 @@
       <c r="B127" t="s">
         <v>16</v>
       </c>
-      <c r="C127">
+      <c r="C127" s="55">
         <v>1</v>
       </c>
     </row>
@@ -9631,7 +9628,7 @@
       <c r="A128" t="s">
         <v>657</v>
       </c>
-      <c r="C128">
+      <c r="C128" s="55">
         <v>1</v>
       </c>
     </row>
@@ -9642,7 +9639,7 @@
       <c r="B129" t="s">
         <v>22</v>
       </c>
-      <c r="C129">
+      <c r="C129" s="55">
         <v>1</v>
       </c>
     </row>
@@ -9650,7 +9647,7 @@
       <c r="A130" t="s">
         <v>658</v>
       </c>
-      <c r="C130">
+      <c r="C130" s="55">
         <v>1</v>
       </c>
     </row>
@@ -9661,7 +9658,7 @@
       <c r="B131" t="s">
         <v>22</v>
       </c>
-      <c r="C131">
+      <c r="C131" s="55">
         <v>1</v>
       </c>
     </row>
@@ -9669,7 +9666,7 @@
       <c r="A132" t="s">
         <v>659</v>
       </c>
-      <c r="C132">
+      <c r="C132" s="55">
         <v>1</v>
       </c>
     </row>
@@ -9680,7 +9677,7 @@
       <c r="B133" t="s">
         <v>22</v>
       </c>
-      <c r="C133">
+      <c r="C133" s="55">
         <v>1</v>
       </c>
     </row>
@@ -9688,7 +9685,7 @@
       <c r="A134" t="s">
         <v>660</v>
       </c>
-      <c r="C134">
+      <c r="C134" s="55">
         <v>1</v>
       </c>
     </row>
@@ -9699,7 +9696,7 @@
       <c r="B135" t="s">
         <v>98</v>
       </c>
-      <c r="C135">
+      <c r="C135" s="55">
         <v>1</v>
       </c>
     </row>
@@ -9707,7 +9704,7 @@
       <c r="A136" t="s">
         <v>661</v>
       </c>
-      <c r="C136">
+      <c r="C136" s="55">
         <v>1</v>
       </c>
     </row>
@@ -9718,7 +9715,7 @@
       <c r="B137" t="s">
         <v>98</v>
       </c>
-      <c r="C137">
+      <c r="C137" s="55">
         <v>1</v>
       </c>
     </row>
@@ -9726,7 +9723,7 @@
       <c r="A138" t="s">
         <v>662</v>
       </c>
-      <c r="C138">
+      <c r="C138" s="55">
         <v>1</v>
       </c>
     </row>
@@ -9737,7 +9734,7 @@
       <c r="B139" t="s">
         <v>16</v>
       </c>
-      <c r="C139">
+      <c r="C139" s="55">
         <v>1</v>
       </c>
     </row>
@@ -9745,7 +9742,7 @@
       <c r="A140" t="s">
         <v>663</v>
       </c>
-      <c r="C140">
+      <c r="C140" s="55">
         <v>1</v>
       </c>
     </row>
@@ -9756,7 +9753,7 @@
       <c r="B141" t="s">
         <v>98</v>
       </c>
-      <c r="C141">
+      <c r="C141" s="55">
         <v>1</v>
       </c>
     </row>
@@ -9764,7 +9761,7 @@
       <c r="A142" t="s">
         <v>664</v>
       </c>
-      <c r="C142">
+      <c r="C142" s="55">
         <v>1</v>
       </c>
     </row>
@@ -9775,7 +9772,7 @@
       <c r="B143" t="s">
         <v>591</v>
       </c>
-      <c r="C143">
+      <c r="C143" s="55">
         <v>1</v>
       </c>
     </row>
@@ -9783,7 +9780,7 @@
       <c r="A144" t="s">
         <v>665</v>
       </c>
-      <c r="C144">
+      <c r="C144" s="55">
         <v>1</v>
       </c>
     </row>
@@ -9794,7 +9791,7 @@
       <c r="B145" t="s">
         <v>22</v>
       </c>
-      <c r="C145">
+      <c r="C145" s="55">
         <v>1</v>
       </c>
     </row>
@@ -9802,7 +9799,7 @@
       <c r="A146" t="s">
         <v>666</v>
       </c>
-      <c r="C146">
+      <c r="C146" s="55">
         <v>1</v>
       </c>
     </row>
@@ -9813,7 +9810,7 @@
       <c r="B147" t="s">
         <v>591</v>
       </c>
-      <c r="C147">
+      <c r="C147" s="55">
         <v>1</v>
       </c>
     </row>
@@ -9821,7 +9818,7 @@
       <c r="A148" t="s">
         <v>667</v>
       </c>
-      <c r="C148">
+      <c r="C148" s="55">
         <v>1</v>
       </c>
     </row>
@@ -9832,7 +9829,7 @@
       <c r="B149" t="s">
         <v>22</v>
       </c>
-      <c r="C149">
+      <c r="C149" s="55">
         <v>1</v>
       </c>
     </row>
@@ -9840,7 +9837,7 @@
       <c r="A150" t="s">
         <v>668</v>
       </c>
-      <c r="C150">
+      <c r="C150" s="55">
         <v>1</v>
       </c>
     </row>
@@ -9851,7 +9848,7 @@
       <c r="B151" t="s">
         <v>591</v>
       </c>
-      <c r="C151">
+      <c r="C151" s="55">
         <v>1</v>
       </c>
     </row>
@@ -9859,7 +9856,7 @@
       <c r="A152" t="s">
         <v>669</v>
       </c>
-      <c r="C152">
+      <c r="C152" s="55">
         <v>1</v>
       </c>
     </row>
@@ -9870,7 +9867,7 @@
       <c r="B153" t="s">
         <v>591</v>
       </c>
-      <c r="C153">
+      <c r="C153" s="55">
         <v>1</v>
       </c>
     </row>
@@ -9878,7 +9875,7 @@
       <c r="A154" t="s">
         <v>670</v>
       </c>
-      <c r="C154">
+      <c r="C154" s="55">
         <v>1</v>
       </c>
     </row>
@@ -9889,7 +9886,7 @@
       <c r="B155" t="s">
         <v>22</v>
       </c>
-      <c r="C155">
+      <c r="C155" s="55">
         <v>1</v>
       </c>
     </row>
@@ -9897,7 +9894,7 @@
       <c r="A156" t="s">
         <v>671</v>
       </c>
-      <c r="C156">
+      <c r="C156" s="55">
         <v>1</v>
       </c>
     </row>
@@ -9908,7 +9905,7 @@
       <c r="B157" t="s">
         <v>591</v>
       </c>
-      <c r="C157">
+      <c r="C157" s="55">
         <v>1</v>
       </c>
     </row>
@@ -9916,7 +9913,7 @@
       <c r="A158" t="s">
         <v>672</v>
       </c>
-      <c r="C158">
+      <c r="C158" s="55">
         <v>1</v>
       </c>
     </row>
@@ -9927,7 +9924,7 @@
       <c r="B159" t="s">
         <v>22</v>
       </c>
-      <c r="C159">
+      <c r="C159" s="55">
         <v>1</v>
       </c>
     </row>
@@ -9935,7 +9932,7 @@
       <c r="A160" t="s">
         <v>673</v>
       </c>
-      <c r="C160">
+      <c r="C160" s="55">
         <v>1</v>
       </c>
     </row>
@@ -9946,7 +9943,7 @@
       <c r="B161" t="s">
         <v>16</v>
       </c>
-      <c r="C161">
+      <c r="C161" s="55">
         <v>1</v>
       </c>
     </row>
@@ -9954,7 +9951,7 @@
       <c r="A162" t="s">
         <v>674</v>
       </c>
-      <c r="C162">
+      <c r="C162" s="55">
         <v>1</v>
       </c>
     </row>
@@ -9965,7 +9962,7 @@
       <c r="B163" t="s">
         <v>98</v>
       </c>
-      <c r="C163">
+      <c r="C163" s="55">
         <v>1</v>
       </c>
     </row>
@@ -9973,7 +9970,7 @@
       <c r="A164" t="s">
         <v>675</v>
       </c>
-      <c r="C164">
+      <c r="C164" s="55">
         <v>1</v>
       </c>
     </row>
@@ -9984,7 +9981,7 @@
       <c r="B165" t="s">
         <v>22</v>
       </c>
-      <c r="C165">
+      <c r="C165" s="55">
         <v>1</v>
       </c>
     </row>
@@ -9992,7 +9989,7 @@
       <c r="A166" t="s">
         <v>676</v>
       </c>
-      <c r="C166">
+      <c r="C166" s="55">
         <v>1</v>
       </c>
     </row>
@@ -10003,7 +10000,7 @@
       <c r="B167" t="s">
         <v>22</v>
       </c>
-      <c r="C167">
+      <c r="C167" s="55">
         <v>1</v>
       </c>
     </row>
@@ -10011,7 +10008,7 @@
       <c r="A168" t="s">
         <v>677</v>
       </c>
-      <c r="C168">
+      <c r="C168" s="55">
         <v>1</v>
       </c>
     </row>
@@ -10022,7 +10019,7 @@
       <c r="B169" t="s">
         <v>16</v>
       </c>
-      <c r="C169">
+      <c r="C169" s="55">
         <v>1</v>
       </c>
     </row>
@@ -10030,7 +10027,7 @@
       <c r="A170" t="s">
         <v>678</v>
       </c>
-      <c r="C170">
+      <c r="C170" s="55">
         <v>1</v>
       </c>
     </row>
@@ -10041,7 +10038,7 @@
       <c r="B171" t="s">
         <v>591</v>
       </c>
-      <c r="C171">
+      <c r="C171" s="55">
         <v>1</v>
       </c>
     </row>
@@ -10049,7 +10046,7 @@
       <c r="A172" t="s">
         <v>679</v>
       </c>
-      <c r="C172">
+      <c r="C172" s="55">
         <v>1</v>
       </c>
     </row>
@@ -10060,7 +10057,7 @@
       <c r="B173" t="s">
         <v>591</v>
       </c>
-      <c r="C173">
+      <c r="C173" s="55">
         <v>1</v>
       </c>
     </row>
@@ -10068,7 +10065,7 @@
       <c r="A174" t="s">
         <v>680</v>
       </c>
-      <c r="C174">
+      <c r="C174" s="55">
         <v>1</v>
       </c>
     </row>
@@ -10079,7 +10076,7 @@
       <c r="B175" t="s">
         <v>591</v>
       </c>
-      <c r="C175">
+      <c r="C175" s="55">
         <v>1</v>
       </c>
     </row>
@@ -10087,7 +10084,7 @@
       <c r="A176" t="s">
         <v>681</v>
       </c>
-      <c r="C176">
+      <c r="C176" s="55">
         <v>1</v>
       </c>
     </row>
@@ -10098,7 +10095,7 @@
       <c r="B177" t="s">
         <v>591</v>
       </c>
-      <c r="C177">
+      <c r="C177" s="55">
         <v>1</v>
       </c>
     </row>
@@ -10106,7 +10103,7 @@
       <c r="A178" t="s">
         <v>682</v>
       </c>
-      <c r="C178">
+      <c r="C178" s="55">
         <v>1</v>
       </c>
     </row>
@@ -10117,7 +10114,7 @@
       <c r="B179" t="s">
         <v>16</v>
       </c>
-      <c r="C179">
+      <c r="C179" s="55">
         <v>1</v>
       </c>
     </row>
@@ -10125,7 +10122,7 @@
       <c r="B180" t="s">
         <v>591</v>
       </c>
-      <c r="C180">
+      <c r="C180" s="55">
         <v>1</v>
       </c>
     </row>
@@ -10133,7 +10130,7 @@
       <c r="A181" t="s">
         <v>683</v>
       </c>
-      <c r="C181">
+      <c r="C181" s="55">
         <v>2</v>
       </c>
     </row>
@@ -10144,7 +10141,7 @@
       <c r="B182" t="s">
         <v>22</v>
       </c>
-      <c r="C182">
+      <c r="C182" s="55">
         <v>1</v>
       </c>
     </row>
@@ -10152,7 +10149,7 @@
       <c r="A183" t="s">
         <v>684</v>
       </c>
-      <c r="C183">
+      <c r="C183" s="55">
         <v>1</v>
       </c>
     </row>
@@ -10163,7 +10160,7 @@
       <c r="B184" t="s">
         <v>591</v>
       </c>
-      <c r="C184">
+      <c r="C184" s="55">
         <v>1</v>
       </c>
     </row>
@@ -10171,7 +10168,7 @@
       <c r="A185" t="s">
         <v>685</v>
       </c>
-      <c r="C185">
+      <c r="C185" s="55">
         <v>1</v>
       </c>
     </row>
@@ -10182,7 +10179,7 @@
       <c r="B186" t="s">
         <v>98</v>
       </c>
-      <c r="C186">
+      <c r="C186" s="55">
         <v>1</v>
       </c>
     </row>
@@ -10190,7 +10187,7 @@
       <c r="A187" t="s">
         <v>686</v>
       </c>
-      <c r="C187">
+      <c r="C187" s="55">
         <v>1</v>
       </c>
     </row>
@@ -10201,7 +10198,7 @@
       <c r="B188" t="s">
         <v>591</v>
       </c>
-      <c r="C188">
+      <c r="C188" s="55">
         <v>1</v>
       </c>
     </row>
@@ -10209,7 +10206,7 @@
       <c r="A189" t="s">
         <v>687</v>
       </c>
-      <c r="C189">
+      <c r="C189" s="55">
         <v>1</v>
       </c>
     </row>
@@ -10220,7 +10217,7 @@
       <c r="B190" t="s">
         <v>591</v>
       </c>
-      <c r="C190">
+      <c r="C190" s="55">
         <v>1</v>
       </c>
     </row>
@@ -10228,7 +10225,7 @@
       <c r="A191" t="s">
         <v>688</v>
       </c>
-      <c r="C191">
+      <c r="C191" s="55">
         <v>1</v>
       </c>
     </row>
@@ -10239,7 +10236,7 @@
       <c r="B192" t="s">
         <v>591</v>
       </c>
-      <c r="C192">
+      <c r="C192" s="55">
         <v>1</v>
       </c>
     </row>
@@ -10247,7 +10244,7 @@
       <c r="A193" t="s">
         <v>689</v>
       </c>
-      <c r="C193">
+      <c r="C193" s="55">
         <v>1</v>
       </c>
     </row>
@@ -10258,7 +10255,7 @@
       <c r="B194" t="s">
         <v>22</v>
       </c>
-      <c r="C194">
+      <c r="C194" s="55">
         <v>1</v>
       </c>
     </row>
@@ -10266,7 +10263,7 @@
       <c r="A195" t="s">
         <v>690</v>
       </c>
-      <c r="C195">
+      <c r="C195" s="55">
         <v>1</v>
       </c>
     </row>
@@ -10277,7 +10274,7 @@
       <c r="B196" t="s">
         <v>98</v>
       </c>
-      <c r="C196">
+      <c r="C196" s="55">
         <v>1</v>
       </c>
     </row>
@@ -10285,7 +10282,7 @@
       <c r="A197" t="s">
         <v>691</v>
       </c>
-      <c r="C197">
+      <c r="C197" s="55">
         <v>1</v>
       </c>
     </row>
@@ -10296,7 +10293,7 @@
       <c r="B198" t="s">
         <v>22</v>
       </c>
-      <c r="C198">
+      <c r="C198" s="55">
         <v>1</v>
       </c>
     </row>
@@ -10304,7 +10301,7 @@
       <c r="A199" t="s">
         <v>692</v>
       </c>
-      <c r="C199">
+      <c r="C199" s="55">
         <v>1</v>
       </c>
     </row>
@@ -10315,7 +10312,7 @@
       <c r="B200" t="s">
         <v>16</v>
       </c>
-      <c r="C200">
+      <c r="C200" s="55">
         <v>1</v>
       </c>
     </row>
@@ -10323,7 +10320,7 @@
       <c r="A201" t="s">
         <v>693</v>
       </c>
-      <c r="C201">
+      <c r="C201" s="55">
         <v>1</v>
       </c>
     </row>
@@ -10334,7 +10331,7 @@
       <c r="B202" t="s">
         <v>16</v>
       </c>
-      <c r="C202">
+      <c r="C202" s="55">
         <v>1</v>
       </c>
     </row>
@@ -10342,7 +10339,7 @@
       <c r="A203" t="s">
         <v>694</v>
       </c>
-      <c r="C203">
+      <c r="C203" s="55">
         <v>1</v>
       </c>
     </row>
@@ -10353,7 +10350,7 @@
       <c r="B204" t="s">
         <v>22</v>
       </c>
-      <c r="C204">
+      <c r="C204" s="55">
         <v>1</v>
       </c>
     </row>
@@ -10361,7 +10358,7 @@
       <c r="A205" t="s">
         <v>695</v>
       </c>
-      <c r="C205">
+      <c r="C205" s="55">
         <v>1</v>
       </c>
     </row>
@@ -10372,7 +10369,7 @@
       <c r="B206" t="s">
         <v>22</v>
       </c>
-      <c r="C206">
+      <c r="C206" s="55">
         <v>1</v>
       </c>
     </row>
@@ -10380,7 +10377,7 @@
       <c r="A207" t="s">
         <v>696</v>
       </c>
-      <c r="C207">
+      <c r="C207" s="55">
         <v>1</v>
       </c>
     </row>
@@ -10391,7 +10388,7 @@
       <c r="B208" t="s">
         <v>98</v>
       </c>
-      <c r="C208">
+      <c r="C208" s="55">
         <v>1</v>
       </c>
     </row>
@@ -10399,7 +10396,7 @@
       <c r="A209" t="s">
         <v>697</v>
       </c>
-      <c r="C209">
+      <c r="C209" s="55">
         <v>1</v>
       </c>
     </row>
@@ -10410,7 +10407,7 @@
       <c r="B210" t="s">
         <v>22</v>
       </c>
-      <c r="C210">
+      <c r="C210" s="55">
         <v>1</v>
       </c>
     </row>
@@ -10418,7 +10415,7 @@
       <c r="A211" t="s">
         <v>698</v>
       </c>
-      <c r="C211">
+      <c r="C211" s="55">
         <v>1</v>
       </c>
     </row>
@@ -10429,7 +10426,7 @@
       <c r="B212" t="s">
         <v>16</v>
       </c>
-      <c r="C212">
+      <c r="C212" s="55">
         <v>1</v>
       </c>
     </row>
@@ -10437,7 +10434,7 @@
       <c r="A213" t="s">
         <v>699</v>
       </c>
-      <c r="C213">
+      <c r="C213" s="55">
         <v>1</v>
       </c>
     </row>
@@ -10448,7 +10445,7 @@
       <c r="B214" t="s">
         <v>22</v>
       </c>
-      <c r="C214">
+      <c r="C214" s="55">
         <v>1</v>
       </c>
     </row>
@@ -10456,7 +10453,7 @@
       <c r="A215" t="s">
         <v>700</v>
       </c>
-      <c r="C215">
+      <c r="C215" s="55">
         <v>1</v>
       </c>
     </row>
@@ -10467,7 +10464,7 @@
       <c r="B216" t="s">
         <v>16</v>
       </c>
-      <c r="C216">
+      <c r="C216" s="55">
         <v>1</v>
       </c>
     </row>
@@ -10475,7 +10472,7 @@
       <c r="A217" t="s">
         <v>701</v>
       </c>
-      <c r="C217">
+      <c r="C217" s="55">
         <v>1</v>
       </c>
     </row>
@@ -10486,7 +10483,7 @@
       <c r="B218" t="s">
         <v>591</v>
       </c>
-      <c r="C218">
+      <c r="C218" s="55">
         <v>1</v>
       </c>
     </row>
@@ -10494,7 +10491,7 @@
       <c r="A219" t="s">
         <v>702</v>
       </c>
-      <c r="C219">
+      <c r="C219" s="55">
         <v>1</v>
       </c>
     </row>
@@ -10505,7 +10502,7 @@
       <c r="B220" t="s">
         <v>591</v>
       </c>
-      <c r="C220">
+      <c r="C220" s="55">
         <v>1</v>
       </c>
     </row>
@@ -10513,7 +10510,7 @@
       <c r="A221" t="s">
         <v>703</v>
       </c>
-      <c r="C221">
+      <c r="C221" s="55">
         <v>1</v>
       </c>
     </row>
@@ -10524,7 +10521,7 @@
       <c r="B222" t="s">
         <v>16</v>
       </c>
-      <c r="C222">
+      <c r="C222" s="55">
         <v>1</v>
       </c>
     </row>
@@ -10532,7 +10529,7 @@
       <c r="A223" t="s">
         <v>704</v>
       </c>
-      <c r="C223">
+      <c r="C223" s="55">
         <v>1</v>
       </c>
     </row>
@@ -10543,7 +10540,7 @@
       <c r="B224" t="s">
         <v>16</v>
       </c>
-      <c r="C224">
+      <c r="C224" s="55">
         <v>1</v>
       </c>
     </row>
@@ -10551,7 +10548,7 @@
       <c r="A225" t="s">
         <v>705</v>
       </c>
-      <c r="C225">
+      <c r="C225" s="55">
         <v>1</v>
       </c>
     </row>
@@ -10562,7 +10559,7 @@
       <c r="B226" t="s">
         <v>16</v>
       </c>
-      <c r="C226">
+      <c r="C226" s="55">
         <v>1</v>
       </c>
     </row>
@@ -10570,7 +10567,7 @@
       <c r="A227" t="s">
         <v>706</v>
       </c>
-      <c r="C227">
+      <c r="C227" s="55">
         <v>1</v>
       </c>
     </row>
@@ -10581,7 +10578,7 @@
       <c r="B228" t="s">
         <v>16</v>
       </c>
-      <c r="C228">
+      <c r="C228" s="55">
         <v>1</v>
       </c>
     </row>
@@ -10589,7 +10586,7 @@
       <c r="A229" t="s">
         <v>707</v>
       </c>
-      <c r="C229">
+      <c r="C229" s="55">
         <v>1</v>
       </c>
     </row>
@@ -10600,7 +10597,7 @@
       <c r="B230" t="s">
         <v>22</v>
       </c>
-      <c r="C230">
+      <c r="C230" s="55">
         <v>1</v>
       </c>
     </row>
@@ -10608,7 +10605,7 @@
       <c r="A231" t="s">
         <v>708</v>
       </c>
-      <c r="C231">
+      <c r="C231" s="55">
         <v>1</v>
       </c>
     </row>
@@ -10619,7 +10616,7 @@
       <c r="B232" t="s">
         <v>16</v>
       </c>
-      <c r="C232">
+      <c r="C232" s="55">
         <v>1</v>
       </c>
     </row>
@@ -10627,7 +10624,7 @@
       <c r="A233" t="s">
         <v>709</v>
       </c>
-      <c r="C233">
+      <c r="C233" s="55">
         <v>1</v>
       </c>
     </row>
@@ -10638,7 +10635,7 @@
       <c r="B234" t="s">
         <v>22</v>
       </c>
-      <c r="C234">
+      <c r="C234" s="55">
         <v>1</v>
       </c>
     </row>
@@ -10646,7 +10643,7 @@
       <c r="A235" t="s">
         <v>710</v>
       </c>
-      <c r="C235">
+      <c r="C235" s="55">
         <v>1</v>
       </c>
     </row>
@@ -10657,7 +10654,7 @@
       <c r="B236" t="s">
         <v>16</v>
       </c>
-      <c r="C236">
+      <c r="C236" s="55">
         <v>1</v>
       </c>
     </row>
@@ -10665,7 +10662,7 @@
       <c r="A237" t="s">
         <v>711</v>
       </c>
-      <c r="C237">
+      <c r="C237" s="55">
         <v>1</v>
       </c>
     </row>
@@ -10676,7 +10673,7 @@
       <c r="B238" t="s">
         <v>22</v>
       </c>
-      <c r="C238">
+      <c r="C238" s="55">
         <v>1</v>
       </c>
     </row>
@@ -10684,7 +10681,7 @@
       <c r="A239" t="s">
         <v>712</v>
       </c>
-      <c r="C239">
+      <c r="C239" s="55">
         <v>1</v>
       </c>
     </row>
@@ -10695,7 +10692,7 @@
       <c r="B240" t="s">
         <v>591</v>
       </c>
-      <c r="C240">
+      <c r="C240" s="55">
         <v>1</v>
       </c>
     </row>
@@ -10703,7 +10700,7 @@
       <c r="A241" t="s">
         <v>713</v>
       </c>
-      <c r="C241">
+      <c r="C241" s="55">
         <v>1</v>
       </c>
     </row>
@@ -10714,7 +10711,7 @@
       <c r="B242" t="s">
         <v>98</v>
       </c>
-      <c r="C242">
+      <c r="C242" s="55">
         <v>1</v>
       </c>
     </row>
@@ -10722,7 +10719,7 @@
       <c r="A243" t="s">
         <v>714</v>
       </c>
-      <c r="C243">
+      <c r="C243" s="55">
         <v>1</v>
       </c>
     </row>
@@ -10733,7 +10730,7 @@
       <c r="B244" t="s">
         <v>16</v>
       </c>
-      <c r="C244">
+      <c r="C244" s="55">
         <v>1</v>
       </c>
     </row>
@@ -10741,7 +10738,7 @@
       <c r="A245" t="s">
         <v>715</v>
       </c>
-      <c r="C245">
+      <c r="C245" s="55">
         <v>1</v>
       </c>
     </row>
@@ -10752,7 +10749,7 @@
       <c r="B246" t="s">
         <v>16</v>
       </c>
-      <c r="C246">
+      <c r="C246" s="55">
         <v>1</v>
       </c>
     </row>
@@ -10760,7 +10757,7 @@
       <c r="A247" t="s">
         <v>716</v>
       </c>
-      <c r="C247">
+      <c r="C247" s="55">
         <v>1</v>
       </c>
     </row>
@@ -10771,7 +10768,7 @@
       <c r="B248" t="s">
         <v>16</v>
       </c>
-      <c r="C248">
+      <c r="C248" s="55">
         <v>1</v>
       </c>
     </row>
@@ -10779,7 +10776,7 @@
       <c r="A249" t="s">
         <v>717</v>
       </c>
-      <c r="C249">
+      <c r="C249" s="55">
         <v>1</v>
       </c>
     </row>
@@ -10790,7 +10787,7 @@
       <c r="B250" t="s">
         <v>16</v>
       </c>
-      <c r="C250">
+      <c r="C250" s="55">
         <v>1</v>
       </c>
     </row>
@@ -10798,7 +10795,7 @@
       <c r="A251" t="s">
         <v>718</v>
       </c>
-      <c r="C251">
+      <c r="C251" s="55">
         <v>1</v>
       </c>
     </row>
@@ -10809,7 +10806,7 @@
       <c r="B252" t="s">
         <v>16</v>
       </c>
-      <c r="C252">
+      <c r="C252" s="55">
         <v>1</v>
       </c>
     </row>
@@ -10817,7 +10814,7 @@
       <c r="A253" t="s">
         <v>719</v>
       </c>
-      <c r="C253">
+      <c r="C253" s="55">
         <v>1</v>
       </c>
     </row>
@@ -10828,7 +10825,7 @@
       <c r="B254" t="s">
         <v>22</v>
       </c>
-      <c r="C254">
+      <c r="C254" s="55">
         <v>1</v>
       </c>
     </row>
@@ -10836,7 +10833,7 @@
       <c r="A255" t="s">
         <v>720</v>
       </c>
-      <c r="C255">
+      <c r="C255" s="55">
         <v>1</v>
       </c>
     </row>
@@ -10847,7 +10844,7 @@
       <c r="B256" t="s">
         <v>591</v>
       </c>
-      <c r="C256">
+      <c r="C256" s="55">
         <v>1</v>
       </c>
     </row>
@@ -10855,7 +10852,7 @@
       <c r="A257" t="s">
         <v>721</v>
       </c>
-      <c r="C257">
+      <c r="C257" s="55">
         <v>1</v>
       </c>
     </row>
@@ -10866,7 +10863,7 @@
       <c r="B258" t="s">
         <v>16</v>
       </c>
-      <c r="C258">
+      <c r="C258" s="55">
         <v>1</v>
       </c>
     </row>
@@ -10874,7 +10871,7 @@
       <c r="A259" t="s">
         <v>722</v>
       </c>
-      <c r="C259">
+      <c r="C259" s="55">
         <v>1</v>
       </c>
     </row>
@@ -10885,7 +10882,7 @@
       <c r="B260" t="s">
         <v>591</v>
       </c>
-      <c r="C260">
+      <c r="C260" s="55">
         <v>1</v>
       </c>
     </row>
@@ -10893,7 +10890,7 @@
       <c r="A261" t="s">
         <v>723</v>
       </c>
-      <c r="C261">
+      <c r="C261" s="55">
         <v>1</v>
       </c>
     </row>
@@ -10904,7 +10901,7 @@
       <c r="B262" t="s">
         <v>22</v>
       </c>
-      <c r="C262">
+      <c r="C262" s="55">
         <v>1</v>
       </c>
     </row>
@@ -10912,7 +10909,7 @@
       <c r="A263" t="s">
         <v>724</v>
       </c>
-      <c r="C263">
+      <c r="C263" s="55">
         <v>1</v>
       </c>
     </row>
@@ -10923,7 +10920,7 @@
       <c r="B264" t="s">
         <v>591</v>
       </c>
-      <c r="C264">
+      <c r="C264" s="55">
         <v>1</v>
       </c>
     </row>
@@ -10931,7 +10928,7 @@
       <c r="A265" t="s">
         <v>725</v>
       </c>
-      <c r="C265">
+      <c r="C265" s="55">
         <v>1</v>
       </c>
     </row>
@@ -10942,7 +10939,7 @@
       <c r="B266" t="s">
         <v>16</v>
       </c>
-      <c r="C266">
+      <c r="C266" s="55">
         <v>1</v>
       </c>
     </row>
@@ -10950,7 +10947,7 @@
       <c r="A267" t="s">
         <v>726</v>
       </c>
-      <c r="C267">
+      <c r="C267" s="55">
         <v>1</v>
       </c>
     </row>
@@ -10961,7 +10958,7 @@
       <c r="B268" t="s">
         <v>22</v>
       </c>
-      <c r="C268">
+      <c r="C268" s="55">
         <v>1</v>
       </c>
     </row>
@@ -10969,7 +10966,7 @@
       <c r="A269" t="s">
         <v>727</v>
       </c>
-      <c r="C269">
+      <c r="C269" s="55">
         <v>1</v>
       </c>
     </row>
@@ -10980,7 +10977,7 @@
       <c r="B270" t="s">
         <v>591</v>
       </c>
-      <c r="C270">
+      <c r="C270" s="55">
         <v>1</v>
       </c>
     </row>
@@ -10988,7 +10985,7 @@
       <c r="A271" t="s">
         <v>728</v>
       </c>
-      <c r="C271">
+      <c r="C271" s="55">
         <v>1</v>
       </c>
     </row>
@@ -10999,7 +10996,7 @@
       <c r="B272" t="s">
         <v>98</v>
       </c>
-      <c r="C272">
+      <c r="C272" s="55">
         <v>1</v>
       </c>
     </row>
@@ -11007,7 +11004,7 @@
       <c r="A273" t="s">
         <v>729</v>
       </c>
-      <c r="C273">
+      <c r="C273" s="55">
         <v>1</v>
       </c>
     </row>
@@ -11018,7 +11015,7 @@
       <c r="B274" t="s">
         <v>16</v>
       </c>
-      <c r="C274">
+      <c r="C274" s="55">
         <v>1</v>
       </c>
     </row>
@@ -11026,7 +11023,7 @@
       <c r="A275" t="s">
         <v>730</v>
       </c>
-      <c r="C275">
+      <c r="C275" s="55">
         <v>1</v>
       </c>
     </row>
@@ -11037,7 +11034,7 @@
       <c r="B276" t="s">
         <v>22</v>
       </c>
-      <c r="C276">
+      <c r="C276" s="55">
         <v>1</v>
       </c>
     </row>
@@ -11045,7 +11042,7 @@
       <c r="A277" t="s">
         <v>731</v>
       </c>
-      <c r="C277">
+      <c r="C277" s="55">
         <v>1</v>
       </c>
     </row>
@@ -11056,7 +11053,7 @@
       <c r="B278" t="s">
         <v>16</v>
       </c>
-      <c r="C278">
+      <c r="C278" s="55">
         <v>1</v>
       </c>
     </row>
@@ -11064,7 +11061,7 @@
       <c r="A279" t="s">
         <v>732</v>
       </c>
-      <c r="C279">
+      <c r="C279" s="55">
         <v>1</v>
       </c>
     </row>
@@ -11075,7 +11072,7 @@
       <c r="B280" t="s">
         <v>98</v>
       </c>
-      <c r="C280">
+      <c r="C280" s="55">
         <v>1</v>
       </c>
     </row>
@@ -11083,7 +11080,7 @@
       <c r="A281" t="s">
         <v>733</v>
       </c>
-      <c r="C281">
+      <c r="C281" s="55">
         <v>1</v>
       </c>
     </row>
@@ -11094,7 +11091,7 @@
       <c r="B282" t="s">
         <v>22</v>
       </c>
-      <c r="C282">
+      <c r="C282" s="55">
         <v>1</v>
       </c>
     </row>
@@ -11102,7 +11099,7 @@
       <c r="A283" t="s">
         <v>734</v>
       </c>
-      <c r="C283">
+      <c r="C283" s="55">
         <v>1</v>
       </c>
     </row>
@@ -11113,7 +11110,7 @@
       <c r="B284" t="s">
         <v>591</v>
       </c>
-      <c r="C284">
+      <c r="C284" s="55">
         <v>1</v>
       </c>
     </row>
@@ -11121,7 +11118,7 @@
       <c r="A285" t="s">
         <v>735</v>
       </c>
-      <c r="C285">
+      <c r="C285" s="55">
         <v>1</v>
       </c>
     </row>
@@ -11132,7 +11129,7 @@
       <c r="B286" t="s">
         <v>22</v>
       </c>
-      <c r="C286">
+      <c r="C286" s="55">
         <v>1</v>
       </c>
     </row>
@@ -11140,7 +11137,7 @@
       <c r="A287" t="s">
         <v>736</v>
       </c>
-      <c r="C287">
+      <c r="C287" s="55">
         <v>1</v>
       </c>
     </row>
@@ -11151,7 +11148,7 @@
       <c r="B288" t="s">
         <v>591</v>
       </c>
-      <c r="C288">
+      <c r="C288" s="55">
         <v>1</v>
       </c>
     </row>
@@ -11159,7 +11156,7 @@
       <c r="A289" t="s">
         <v>737</v>
       </c>
-      <c r="C289">
+      <c r="C289" s="55">
         <v>1</v>
       </c>
     </row>
@@ -11170,7 +11167,7 @@
       <c r="B290" t="s">
         <v>98</v>
       </c>
-      <c r="C290">
+      <c r="C290" s="55">
         <v>1</v>
       </c>
     </row>
@@ -11178,7 +11175,7 @@
       <c r="A291" t="s">
         <v>738</v>
       </c>
-      <c r="C291">
+      <c r="C291" s="55">
         <v>1</v>
       </c>
     </row>
@@ -11189,7 +11186,7 @@
       <c r="B292" t="s">
         <v>22</v>
       </c>
-      <c r="C292">
+      <c r="C292" s="55">
         <v>1</v>
       </c>
     </row>
@@ -11197,7 +11194,7 @@
       <c r="A293" t="s">
         <v>739</v>
       </c>
-      <c r="C293">
+      <c r="C293" s="55">
         <v>1</v>
       </c>
     </row>
@@ -11208,7 +11205,7 @@
       <c r="B294" t="s">
         <v>16</v>
       </c>
-      <c r="C294">
+      <c r="C294" s="55">
         <v>1</v>
       </c>
     </row>
@@ -11216,7 +11213,7 @@
       <c r="A295" t="s">
         <v>740</v>
       </c>
-      <c r="C295">
+      <c r="C295" s="55">
         <v>1</v>
       </c>
     </row>
@@ -11227,7 +11224,7 @@
       <c r="B296" t="s">
         <v>22</v>
       </c>
-      <c r="C296">
+      <c r="C296" s="55">
         <v>1</v>
       </c>
     </row>
@@ -11235,7 +11232,7 @@
       <c r="A297" t="s">
         <v>741</v>
       </c>
-      <c r="C297">
+      <c r="C297" s="55">
         <v>1</v>
       </c>
     </row>
@@ -11246,7 +11243,7 @@
       <c r="B298" t="s">
         <v>22</v>
       </c>
-      <c r="C298">
+      <c r="C298" s="55">
         <v>1</v>
       </c>
     </row>
@@ -11254,7 +11251,7 @@
       <c r="A299" t="s">
         <v>742</v>
       </c>
-      <c r="C299">
+      <c r="C299" s="55">
         <v>1</v>
       </c>
     </row>
@@ -11265,7 +11262,7 @@
       <c r="B300" t="s">
         <v>16</v>
       </c>
-      <c r="C300">
+      <c r="C300" s="55">
         <v>1</v>
       </c>
     </row>
@@ -11273,7 +11270,7 @@
       <c r="A301" t="s">
         <v>743</v>
       </c>
-      <c r="C301">
+      <c r="C301" s="55">
         <v>1</v>
       </c>
     </row>
@@ -11284,7 +11281,7 @@
       <c r="B302" t="s">
         <v>22</v>
       </c>
-      <c r="C302">
+      <c r="C302" s="55">
         <v>1</v>
       </c>
     </row>
@@ -11292,7 +11289,7 @@
       <c r="A303" t="s">
         <v>744</v>
       </c>
-      <c r="C303">
+      <c r="C303" s="55">
         <v>1</v>
       </c>
     </row>
@@ -11303,7 +11300,7 @@
       <c r="B304" t="s">
         <v>16</v>
       </c>
-      <c r="C304">
+      <c r="C304" s="55">
         <v>1</v>
       </c>
     </row>
@@ -11311,7 +11308,7 @@
       <c r="A305" t="s">
         <v>745</v>
       </c>
-      <c r="C305">
+      <c r="C305" s="55">
         <v>1</v>
       </c>
     </row>
@@ -11322,7 +11319,7 @@
       <c r="B306" t="s">
         <v>98</v>
       </c>
-      <c r="C306">
+      <c r="C306" s="55">
         <v>1</v>
       </c>
     </row>
@@ -11330,7 +11327,7 @@
       <c r="A307" t="s">
         <v>746</v>
       </c>
-      <c r="C307">
+      <c r="C307" s="55">
         <v>1</v>
       </c>
     </row>
@@ -11341,7 +11338,7 @@
       <c r="B308" t="s">
         <v>22</v>
       </c>
-      <c r="C308">
+      <c r="C308" s="55">
         <v>1</v>
       </c>
     </row>
@@ -11349,7 +11346,7 @@
       <c r="A309" t="s">
         <v>747</v>
       </c>
-      <c r="C309">
+      <c r="C309" s="55">
         <v>1</v>
       </c>
     </row>
@@ -11360,7 +11357,7 @@
       <c r="B310" t="s">
         <v>22</v>
       </c>
-      <c r="C310">
+      <c r="C310" s="55">
         <v>1</v>
       </c>
     </row>
@@ -11368,7 +11365,7 @@
       <c r="A311" t="s">
         <v>748</v>
       </c>
-      <c r="C311">
+      <c r="C311" s="55">
         <v>1</v>
       </c>
     </row>
@@ -11379,7 +11376,7 @@
       <c r="B312" t="s">
         <v>22</v>
       </c>
-      <c r="C312">
+      <c r="C312" s="55">
         <v>1</v>
       </c>
     </row>
@@ -11387,7 +11384,7 @@
       <c r="A313" t="s">
         <v>749</v>
       </c>
-      <c r="C313">
+      <c r="C313" s="55">
         <v>1</v>
       </c>
     </row>
@@ -11398,7 +11395,7 @@
       <c r="B314" t="s">
         <v>591</v>
       </c>
-      <c r="C314">
+      <c r="C314" s="55">
         <v>1</v>
       </c>
     </row>
@@ -11406,7 +11403,7 @@
       <c r="A315" t="s">
         <v>750</v>
       </c>
-      <c r="C315">
+      <c r="C315" s="55">
         <v>1</v>
       </c>
     </row>
@@ -11417,7 +11414,7 @@
       <c r="B316" t="s">
         <v>22</v>
       </c>
-      <c r="C316">
+      <c r="C316" s="55">
         <v>1</v>
       </c>
     </row>
@@ -11425,7 +11422,7 @@
       <c r="A317" t="s">
         <v>751</v>
       </c>
-      <c r="C317">
+      <c r="C317" s="55">
         <v>1</v>
       </c>
     </row>
@@ -11436,7 +11433,7 @@
       <c r="B318" t="s">
         <v>22</v>
       </c>
-      <c r="C318">
+      <c r="C318" s="55">
         <v>1</v>
       </c>
     </row>
@@ -11444,7 +11441,7 @@
       <c r="A319" t="s">
         <v>752</v>
       </c>
-      <c r="C319">
+      <c r="C319" s="55">
         <v>1</v>
       </c>
     </row>
@@ -11455,7 +11452,7 @@
       <c r="B320" t="s">
         <v>591</v>
       </c>
-      <c r="C320">
+      <c r="C320" s="55">
         <v>1</v>
       </c>
     </row>
@@ -11463,7 +11460,7 @@
       <c r="A321" t="s">
         <v>753</v>
       </c>
-      <c r="C321">
+      <c r="C321" s="55">
         <v>1</v>
       </c>
     </row>
@@ -11474,7 +11471,7 @@
       <c r="B322" t="s">
         <v>16</v>
       </c>
-      <c r="C322">
+      <c r="C322" s="55">
         <v>1</v>
       </c>
     </row>
@@ -11482,7 +11479,7 @@
       <c r="A323" t="s">
         <v>754</v>
       </c>
-      <c r="C323">
+      <c r="C323" s="55">
         <v>1</v>
       </c>
     </row>
@@ -11493,7 +11490,7 @@
       <c r="B324" t="s">
         <v>16</v>
       </c>
-      <c r="C324">
+      <c r="C324" s="55">
         <v>1</v>
       </c>
     </row>
@@ -11501,7 +11498,7 @@
       <c r="A325" t="s">
         <v>755</v>
       </c>
-      <c r="C325">
+      <c r="C325" s="55">
         <v>1</v>
       </c>
     </row>
@@ -11512,7 +11509,7 @@
       <c r="B326" t="s">
         <v>16</v>
       </c>
-      <c r="C326">
+      <c r="C326" s="55">
         <v>1</v>
       </c>
     </row>
@@ -11520,7 +11517,7 @@
       <c r="A327" t="s">
         <v>756</v>
       </c>
-      <c r="C327">
+      <c r="C327" s="55">
         <v>1</v>
       </c>
     </row>
@@ -11531,7 +11528,7 @@
       <c r="B328" t="s">
         <v>16</v>
       </c>
-      <c r="C328">
+      <c r="C328" s="55">
         <v>1</v>
       </c>
     </row>
@@ -11539,7 +11536,7 @@
       <c r="A329" t="s">
         <v>757</v>
       </c>
-      <c r="C329">
+      <c r="C329" s="55">
         <v>1</v>
       </c>
     </row>
@@ -11550,7 +11547,7 @@
       <c r="B330" t="s">
         <v>591</v>
       </c>
-      <c r="C330">
+      <c r="C330" s="55">
         <v>1</v>
       </c>
     </row>
@@ -11558,7 +11555,7 @@
       <c r="A331" t="s">
         <v>758</v>
       </c>
-      <c r="C331">
+      <c r="C331" s="55">
         <v>1</v>
       </c>
     </row>
@@ -11569,7 +11566,7 @@
       <c r="B332" t="s">
         <v>22</v>
       </c>
-      <c r="C332">
+      <c r="C332" s="55">
         <v>1</v>
       </c>
     </row>
@@ -11577,7 +11574,7 @@
       <c r="A333" t="s">
         <v>759</v>
       </c>
-      <c r="C333">
+      <c r="C333" s="55">
         <v>1</v>
       </c>
     </row>
@@ -11588,7 +11585,7 @@
       <c r="B334" t="s">
         <v>16</v>
       </c>
-      <c r="C334">
+      <c r="C334" s="55">
         <v>1</v>
       </c>
     </row>
@@ -11596,7 +11593,7 @@
       <c r="A335" t="s">
         <v>760</v>
       </c>
-      <c r="C335">
+      <c r="C335" s="55">
         <v>1</v>
       </c>
     </row>
@@ -11607,7 +11604,7 @@
       <c r="B336" t="s">
         <v>591</v>
       </c>
-      <c r="C336">
+      <c r="C336" s="55">
         <v>1</v>
       </c>
     </row>
@@ -11615,7 +11612,7 @@
       <c r="A337" t="s">
         <v>761</v>
       </c>
-      <c r="C337">
+      <c r="C337" s="55">
         <v>1</v>
       </c>
     </row>
@@ -11626,7 +11623,7 @@
       <c r="B338" t="s">
         <v>16</v>
       </c>
-      <c r="C338">
+      <c r="C338" s="55">
         <v>1</v>
       </c>
     </row>
@@ -11634,7 +11631,7 @@
       <c r="A339" t="s">
         <v>762</v>
       </c>
-      <c r="C339">
+      <c r="C339" s="55">
         <v>1</v>
       </c>
     </row>
@@ -11645,7 +11642,7 @@
       <c r="B340" t="s">
         <v>16</v>
       </c>
-      <c r="C340">
+      <c r="C340" s="55">
         <v>1</v>
       </c>
     </row>
@@ -11653,7 +11650,7 @@
       <c r="A341" t="s">
         <v>763</v>
       </c>
-      <c r="C341">
+      <c r="C341" s="55">
         <v>1</v>
       </c>
     </row>
@@ -11664,7 +11661,7 @@
       <c r="B342" t="s">
         <v>591</v>
       </c>
-      <c r="C342">
+      <c r="C342" s="55">
         <v>1</v>
       </c>
     </row>
@@ -11672,7 +11669,7 @@
       <c r="A343" t="s">
         <v>764</v>
       </c>
-      <c r="C343">
+      <c r="C343" s="55">
         <v>1</v>
       </c>
     </row>
@@ -11683,7 +11680,7 @@
       <c r="B344" t="s">
         <v>98</v>
       </c>
-      <c r="C344">
+      <c r="C344" s="55">
         <v>1</v>
       </c>
     </row>
@@ -11691,7 +11688,7 @@
       <c r="A345" t="s">
         <v>765</v>
       </c>
-      <c r="C345">
+      <c r="C345" s="55">
         <v>1</v>
       </c>
     </row>
@@ -11702,7 +11699,7 @@
       <c r="B346" t="s">
         <v>591</v>
       </c>
-      <c r="C346">
+      <c r="C346" s="55">
         <v>1</v>
       </c>
     </row>
@@ -11710,7 +11707,7 @@
       <c r="A347" t="s">
         <v>766</v>
       </c>
-      <c r="C347">
+      <c r="C347" s="55">
         <v>1</v>
       </c>
     </row>
@@ -11721,7 +11718,7 @@
       <c r="B348" t="s">
         <v>16</v>
       </c>
-      <c r="C348">
+      <c r="C348" s="55">
         <v>1</v>
       </c>
     </row>
@@ -11729,7 +11726,7 @@
       <c r="A349" t="s">
         <v>767</v>
       </c>
-      <c r="C349">
+      <c r="C349" s="55">
         <v>1</v>
       </c>
     </row>
@@ -11740,7 +11737,7 @@
       <c r="B350" t="s">
         <v>16</v>
       </c>
-      <c r="C350">
+      <c r="C350" s="55">
         <v>1</v>
       </c>
     </row>
@@ -11748,7 +11745,7 @@
       <c r="A351" t="s">
         <v>768</v>
       </c>
-      <c r="C351">
+      <c r="C351" s="55">
         <v>1</v>
       </c>
     </row>
@@ -11759,7 +11756,7 @@
       <c r="B352" t="s">
         <v>22</v>
       </c>
-      <c r="C352">
+      <c r="C352" s="55">
         <v>1</v>
       </c>
     </row>
@@ -11767,7 +11764,7 @@
       <c r="A353" t="s">
         <v>769</v>
       </c>
-      <c r="C353">
+      <c r="C353" s="55">
         <v>1</v>
       </c>
     </row>
@@ -11778,7 +11775,7 @@
       <c r="B354" t="s">
         <v>22</v>
       </c>
-      <c r="C354">
+      <c r="C354" s="55">
         <v>1</v>
       </c>
     </row>
@@ -11786,7 +11783,7 @@
       <c r="A355" t="s">
         <v>770</v>
       </c>
-      <c r="C355">
+      <c r="C355" s="55">
         <v>1</v>
       </c>
     </row>
@@ -11797,7 +11794,7 @@
       <c r="B356" t="s">
         <v>16</v>
       </c>
-      <c r="C356">
+      <c r="C356" s="55">
         <v>1</v>
       </c>
     </row>
@@ -11805,7 +11802,7 @@
       <c r="A357" t="s">
         <v>771</v>
       </c>
-      <c r="C357">
+      <c r="C357" s="55">
         <v>1</v>
       </c>
     </row>
@@ -11816,7 +11813,7 @@
       <c r="B358" t="s">
         <v>16</v>
       </c>
-      <c r="C358">
+      <c r="C358" s="55">
         <v>1</v>
       </c>
     </row>
@@ -11824,7 +11821,7 @@
       <c r="A359" t="s">
         <v>772</v>
       </c>
-      <c r="C359">
+      <c r="C359" s="55">
         <v>1</v>
       </c>
     </row>
@@ -11835,7 +11832,7 @@
       <c r="B360" t="s">
         <v>591</v>
       </c>
-      <c r="C360">
+      <c r="C360" s="55">
         <v>1</v>
       </c>
     </row>
@@ -11843,7 +11840,7 @@
       <c r="A361" t="s">
         <v>773</v>
       </c>
-      <c r="C361">
+      <c r="C361" s="55">
         <v>1</v>
       </c>
     </row>
@@ -11854,7 +11851,7 @@
       <c r="B362" t="s">
         <v>16</v>
       </c>
-      <c r="C362">
+      <c r="C362" s="55">
         <v>1</v>
       </c>
     </row>
@@ -11862,7 +11859,7 @@
       <c r="A363" t="s">
         <v>774</v>
       </c>
-      <c r="C363">
+      <c r="C363" s="55">
         <v>1</v>
       </c>
     </row>
@@ -11873,7 +11870,7 @@
       <c r="B364" t="s">
         <v>16</v>
       </c>
-      <c r="C364">
+      <c r="C364" s="55">
         <v>1</v>
       </c>
     </row>
@@ -11881,7 +11878,7 @@
       <c r="A365" t="s">
         <v>775</v>
       </c>
-      <c r="C365">
+      <c r="C365" s="55">
         <v>1</v>
       </c>
     </row>
@@ -11892,7 +11889,7 @@
       <c r="B366" t="s">
         <v>16</v>
       </c>
-      <c r="C366">
+      <c r="C366" s="55">
         <v>1</v>
       </c>
     </row>
@@ -11900,7 +11897,7 @@
       <c r="A367" t="s">
         <v>776</v>
       </c>
-      <c r="C367">
+      <c r="C367" s="55">
         <v>1</v>
       </c>
     </row>
@@ -11911,7 +11908,7 @@
       <c r="B368" t="s">
         <v>22</v>
       </c>
-      <c r="C368">
+      <c r="C368" s="55">
         <v>1</v>
       </c>
     </row>
@@ -11919,7 +11916,7 @@
       <c r="A369" t="s">
         <v>777</v>
       </c>
-      <c r="C369">
+      <c r="C369" s="55">
         <v>1</v>
       </c>
     </row>
@@ -11930,7 +11927,7 @@
       <c r="B370" t="s">
         <v>591</v>
       </c>
-      <c r="C370">
+      <c r="C370" s="55">
         <v>1</v>
       </c>
     </row>
@@ -11938,7 +11935,7 @@
       <c r="A371" t="s">
         <v>778</v>
       </c>
-      <c r="C371">
+      <c r="C371" s="55">
         <v>1</v>
       </c>
     </row>
@@ -11949,7 +11946,7 @@
       <c r="B372" t="s">
         <v>591</v>
       </c>
-      <c r="C372">
+      <c r="C372" s="55">
         <v>1</v>
       </c>
     </row>
@@ -11957,7 +11954,7 @@
       <c r="A373" t="s">
         <v>779</v>
       </c>
-      <c r="C373">
+      <c r="C373" s="55">
         <v>1</v>
       </c>
     </row>
@@ -11968,7 +11965,7 @@
       <c r="B374" t="s">
         <v>22</v>
       </c>
-      <c r="C374">
+      <c r="C374" s="55">
         <v>1</v>
       </c>
     </row>
@@ -11976,7 +11973,7 @@
       <c r="A375" t="s">
         <v>780</v>
       </c>
-      <c r="C375">
+      <c r="C375" s="55">
         <v>1</v>
       </c>
     </row>
@@ -11987,7 +11984,7 @@
       <c r="B376" t="s">
         <v>16</v>
       </c>
-      <c r="C376">
+      <c r="C376" s="55">
         <v>1</v>
       </c>
     </row>
@@ -11995,7 +11992,7 @@
       <c r="A377" t="s">
         <v>781</v>
       </c>
-      <c r="C377">
+      <c r="C377" s="55">
         <v>1</v>
       </c>
     </row>
@@ -12006,7 +12003,7 @@
       <c r="B378" t="s">
         <v>22</v>
       </c>
-      <c r="C378">
+      <c r="C378" s="55">
         <v>1</v>
       </c>
     </row>
@@ -12014,7 +12011,7 @@
       <c r="A379" t="s">
         <v>782</v>
       </c>
-      <c r="C379">
+      <c r="C379" s="55">
         <v>1</v>
       </c>
     </row>
@@ -12025,7 +12022,7 @@
       <c r="B380" t="s">
         <v>22</v>
       </c>
-      <c r="C380">
+      <c r="C380" s="55">
         <v>1</v>
       </c>
     </row>
@@ -12033,7 +12030,7 @@
       <c r="A381" t="s">
         <v>783</v>
       </c>
-      <c r="C381">
+      <c r="C381" s="55">
         <v>1</v>
       </c>
     </row>
@@ -12044,7 +12041,7 @@
       <c r="B382" t="s">
         <v>591</v>
       </c>
-      <c r="C382">
+      <c r="C382" s="55">
         <v>1</v>
       </c>
     </row>
@@ -12052,7 +12049,7 @@
       <c r="A383" t="s">
         <v>784</v>
       </c>
-      <c r="C383">
+      <c r="C383" s="55">
         <v>1</v>
       </c>
     </row>
@@ -12063,17 +12060,19 @@
       <c r="B384" t="s">
         <v>591</v>
       </c>
+      <c r="C384" s="55"/>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>785</v>
       </c>
+      <c r="C385" s="55"/>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>592</v>
       </c>
-      <c r="C386">
+      <c r="C386" s="55">
         <v>190</v>
       </c>
     </row>
@@ -12127,11 +12126,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5798A0F0-96CE-49CB-9B2C-95EC91751F5C}">
   <dimension ref="A1:L1048574"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B164" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B172" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D201" sqref="D201"/>
+      <selection pane="bottomRight" activeCell="J119" sqref="J119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/Vendor Registration.xlsx
+++ b/Vendor Registration.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://expertindus-my.sharepoint.com/personal/bd07_expertindus_com/Documents/Lead Mangement/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="547" documentId="8_{9E14235E-1F52-4A39-A231-C1E5828BF764}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4A50856C-6F8C-4670-845F-462E9E3DE9B3}"/>
+  <xr:revisionPtr revIDLastSave="550" documentId="8_{9E14235E-1F52-4A39-A231-C1E5828BF764}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7D7B8276-65D2-427D-80EA-D8505086A037}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5DBEB9D1-E9EA-4357-B70C-B774DA78555F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{5DBEB9D1-E9EA-4357-B70C-B774DA78555F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId4"/>
+    <pivotCache cacheId="140" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1802" uniqueCount="812">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1802" uniqueCount="813">
   <si>
     <t>VENDOR REGISTRATION LIST</t>
   </si>
@@ -2980,6 +2980,9 @@
   </si>
   <si>
     <t xml:space="preserve">Saudi Binladin Group (SBG) </t>
+  </si>
+  <si>
+    <t>Kalpataru Power</t>
   </si>
 </sst>
 </file>
@@ -3308,7 +3311,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3452,7 +3455,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3601,6 +3603,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6530,7 +6536,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D4A2787F-0843-4C66-A22C-DC8121C2F4A6}" name="PivotTable7" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D4A2787F-0843-4C66-A22C-DC8121C2F4A6}" name="PivotTable7" cacheId="140" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
   <location ref="A3:C386" firstHeaderRow="2" firstDataRow="2" firstDataCol="2"/>
   <pivotFields count="12">
     <pivotField compact="0" outline="0" showAll="0"/>
@@ -8427,7 +8433,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF22A646-8832-4B60-8E46-A37F3286CCED}">
   <dimension ref="A3:C392"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A214" workbookViewId="0">
+    <sheetView topLeftCell="A214" workbookViewId="0">
       <selection activeCell="A224" sqref="A224"/>
     </sheetView>
   </sheetViews>
@@ -8461,7 +8467,7 @@
       <c r="B5" t="s">
         <v>98</v>
       </c>
-      <c r="C5" s="55">
+      <c r="C5">
         <v>1</v>
       </c>
     </row>
@@ -8469,7 +8475,7 @@
       <c r="A6" t="s">
         <v>596</v>
       </c>
-      <c r="C6" s="55">
+      <c r="C6">
         <v>1</v>
       </c>
     </row>
@@ -8480,7 +8486,7 @@
       <c r="B7" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="55">
+      <c r="C7">
         <v>1</v>
       </c>
     </row>
@@ -8488,7 +8494,7 @@
       <c r="A8" t="s">
         <v>597</v>
       </c>
-      <c r="C8" s="55">
+      <c r="C8">
         <v>1</v>
       </c>
     </row>
@@ -8499,7 +8505,7 @@
       <c r="B9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="55">
+      <c r="C9">
         <v>1</v>
       </c>
     </row>
@@ -8507,7 +8513,7 @@
       <c r="A10" t="s">
         <v>598</v>
       </c>
-      <c r="C10" s="55">
+      <c r="C10">
         <v>1</v>
       </c>
     </row>
@@ -8518,7 +8524,7 @@
       <c r="B11" t="s">
         <v>591</v>
       </c>
-      <c r="C11" s="55">
+      <c r="C11">
         <v>1</v>
       </c>
     </row>
@@ -8526,7 +8532,7 @@
       <c r="A12" t="s">
         <v>599</v>
       </c>
-      <c r="C12" s="55">
+      <c r="C12">
         <v>1</v>
       </c>
     </row>
@@ -8537,7 +8543,7 @@
       <c r="B13" t="s">
         <v>591</v>
       </c>
-      <c r="C13" s="55">
+      <c r="C13">
         <v>1</v>
       </c>
     </row>
@@ -8545,7 +8551,7 @@
       <c r="A14" t="s">
         <v>600</v>
       </c>
-      <c r="C14" s="55">
+      <c r="C14">
         <v>1</v>
       </c>
     </row>
@@ -8556,7 +8562,7 @@
       <c r="B15" t="s">
         <v>591</v>
       </c>
-      <c r="C15" s="55">
+      <c r="C15">
         <v>1</v>
       </c>
     </row>
@@ -8564,7 +8570,7 @@
       <c r="A16" t="s">
         <v>601</v>
       </c>
-      <c r="C16" s="55">
+      <c r="C16">
         <v>1</v>
       </c>
     </row>
@@ -8575,7 +8581,7 @@
       <c r="B17" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="55">
+      <c r="C17">
         <v>1</v>
       </c>
     </row>
@@ -8583,7 +8589,7 @@
       <c r="A18" t="s">
         <v>602</v>
       </c>
-      <c r="C18" s="55">
+      <c r="C18">
         <v>1</v>
       </c>
     </row>
@@ -8594,7 +8600,7 @@
       <c r="B19" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="55">
+      <c r="C19">
         <v>1</v>
       </c>
     </row>
@@ -8602,7 +8608,7 @@
       <c r="A20" t="s">
         <v>603</v>
       </c>
-      <c r="C20" s="55">
+      <c r="C20">
         <v>1</v>
       </c>
     </row>
@@ -8613,7 +8619,7 @@
       <c r="B21" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="55">
+      <c r="C21">
         <v>1</v>
       </c>
     </row>
@@ -8621,7 +8627,7 @@
       <c r="A22" t="s">
         <v>604</v>
       </c>
-      <c r="C22" s="55">
+      <c r="C22">
         <v>1</v>
       </c>
     </row>
@@ -8632,7 +8638,7 @@
       <c r="B23" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="55">
+      <c r="C23">
         <v>1</v>
       </c>
     </row>
@@ -8640,7 +8646,7 @@
       <c r="A24" t="s">
         <v>605</v>
       </c>
-      <c r="C24" s="55">
+      <c r="C24">
         <v>1</v>
       </c>
     </row>
@@ -8651,7 +8657,7 @@
       <c r="B25" t="s">
         <v>591</v>
       </c>
-      <c r="C25" s="55">
+      <c r="C25">
         <v>1</v>
       </c>
     </row>
@@ -8659,7 +8665,7 @@
       <c r="A26" t="s">
         <v>606</v>
       </c>
-      <c r="C26" s="55">
+      <c r="C26">
         <v>1</v>
       </c>
     </row>
@@ -8670,7 +8676,7 @@
       <c r="B27" t="s">
         <v>591</v>
       </c>
-      <c r="C27" s="55">
+      <c r="C27">
         <v>1</v>
       </c>
     </row>
@@ -8678,7 +8684,7 @@
       <c r="A28" t="s">
         <v>607</v>
       </c>
-      <c r="C28" s="55">
+      <c r="C28">
         <v>1</v>
       </c>
     </row>
@@ -8689,7 +8695,7 @@
       <c r="B29" t="s">
         <v>591</v>
       </c>
-      <c r="C29" s="55">
+      <c r="C29">
         <v>1</v>
       </c>
     </row>
@@ -8697,7 +8703,7 @@
       <c r="A30" t="s">
         <v>608</v>
       </c>
-      <c r="C30" s="55">
+      <c r="C30">
         <v>1</v>
       </c>
     </row>
@@ -8708,7 +8714,7 @@
       <c r="B31" t="s">
         <v>591</v>
       </c>
-      <c r="C31" s="55">
+      <c r="C31">
         <v>1</v>
       </c>
     </row>
@@ -8716,7 +8722,7 @@
       <c r="A32" t="s">
         <v>609</v>
       </c>
-      <c r="C32" s="55">
+      <c r="C32">
         <v>1</v>
       </c>
     </row>
@@ -8727,7 +8733,7 @@
       <c r="B33" t="s">
         <v>22</v>
       </c>
-      <c r="C33" s="55">
+      <c r="C33">
         <v>1</v>
       </c>
     </row>
@@ -8735,7 +8741,7 @@
       <c r="A34" t="s">
         <v>610</v>
       </c>
-      <c r="C34" s="55">
+      <c r="C34">
         <v>1</v>
       </c>
     </row>
@@ -8746,7 +8752,7 @@
       <c r="B35" t="s">
         <v>22</v>
       </c>
-      <c r="C35" s="55">
+      <c r="C35">
         <v>1</v>
       </c>
     </row>
@@ -8754,7 +8760,7 @@
       <c r="A36" t="s">
         <v>611</v>
       </c>
-      <c r="C36" s="55">
+      <c r="C36">
         <v>1</v>
       </c>
     </row>
@@ -8765,7 +8771,7 @@
       <c r="B37" t="s">
         <v>591</v>
       </c>
-      <c r="C37" s="55">
+      <c r="C37">
         <v>1</v>
       </c>
     </row>
@@ -8773,7 +8779,7 @@
       <c r="A38" t="s">
         <v>612</v>
       </c>
-      <c r="C38" s="55">
+      <c r="C38">
         <v>1</v>
       </c>
     </row>
@@ -8784,7 +8790,7 @@
       <c r="B39" t="s">
         <v>16</v>
       </c>
-      <c r="C39" s="55">
+      <c r="C39">
         <v>1</v>
       </c>
     </row>
@@ -8792,7 +8798,7 @@
       <c r="A40" t="s">
         <v>613</v>
       </c>
-      <c r="C40" s="55">
+      <c r="C40">
         <v>1</v>
       </c>
     </row>
@@ -8803,7 +8809,7 @@
       <c r="B41" t="s">
         <v>22</v>
       </c>
-      <c r="C41" s="55">
+      <c r="C41">
         <v>1</v>
       </c>
     </row>
@@ -8811,7 +8817,7 @@
       <c r="A42" t="s">
         <v>614</v>
       </c>
-      <c r="C42" s="55">
+      <c r="C42">
         <v>1</v>
       </c>
     </row>
@@ -8822,7 +8828,7 @@
       <c r="B43" t="s">
         <v>22</v>
       </c>
-      <c r="C43" s="55">
+      <c r="C43">
         <v>1</v>
       </c>
     </row>
@@ -8830,7 +8836,7 @@
       <c r="A44" t="s">
         <v>615</v>
       </c>
-      <c r="C44" s="55">
+      <c r="C44">
         <v>1</v>
       </c>
     </row>
@@ -8841,7 +8847,7 @@
       <c r="B45" t="s">
         <v>16</v>
       </c>
-      <c r="C45" s="55">
+      <c r="C45">
         <v>1</v>
       </c>
     </row>
@@ -8849,7 +8855,7 @@
       <c r="A46" t="s">
         <v>616</v>
       </c>
-      <c r="C46" s="55">
+      <c r="C46">
         <v>1</v>
       </c>
     </row>
@@ -8860,7 +8866,7 @@
       <c r="B47" t="s">
         <v>22</v>
       </c>
-      <c r="C47" s="55">
+      <c r="C47">
         <v>1</v>
       </c>
     </row>
@@ -8868,7 +8874,7 @@
       <c r="A48" t="s">
         <v>617</v>
       </c>
-      <c r="C48" s="55">
+      <c r="C48">
         <v>1</v>
       </c>
     </row>
@@ -8879,7 +8885,7 @@
       <c r="B49" t="s">
         <v>22</v>
       </c>
-      <c r="C49" s="55">
+      <c r="C49">
         <v>1</v>
       </c>
     </row>
@@ -8887,7 +8893,7 @@
       <c r="A50" t="s">
         <v>618</v>
       </c>
-      <c r="C50" s="55">
+      <c r="C50">
         <v>1</v>
       </c>
     </row>
@@ -8898,7 +8904,7 @@
       <c r="B51" t="s">
         <v>22</v>
       </c>
-      <c r="C51" s="55">
+      <c r="C51">
         <v>1</v>
       </c>
     </row>
@@ -8906,7 +8912,7 @@
       <c r="A52" t="s">
         <v>619</v>
       </c>
-      <c r="C52" s="55">
+      <c r="C52">
         <v>1</v>
       </c>
     </row>
@@ -8917,7 +8923,7 @@
       <c r="B53" t="s">
         <v>591</v>
       </c>
-      <c r="C53" s="55">
+      <c r="C53">
         <v>1</v>
       </c>
     </row>
@@ -8925,7 +8931,7 @@
       <c r="A54" t="s">
         <v>620</v>
       </c>
-      <c r="C54" s="55">
+      <c r="C54">
         <v>1</v>
       </c>
     </row>
@@ -8936,7 +8942,7 @@
       <c r="B55" t="s">
         <v>22</v>
       </c>
-      <c r="C55" s="55">
+      <c r="C55">
         <v>1</v>
       </c>
     </row>
@@ -8944,7 +8950,7 @@
       <c r="A56" t="s">
         <v>621</v>
       </c>
-      <c r="C56" s="55">
+      <c r="C56">
         <v>1</v>
       </c>
     </row>
@@ -8955,7 +8961,7 @@
       <c r="B57" t="s">
         <v>22</v>
       </c>
-      <c r="C57" s="55">
+      <c r="C57">
         <v>1</v>
       </c>
     </row>
@@ -8963,7 +8969,7 @@
       <c r="A58" t="s">
         <v>622</v>
       </c>
-      <c r="C58" s="55">
+      <c r="C58">
         <v>1</v>
       </c>
     </row>
@@ -8974,7 +8980,7 @@
       <c r="B59" t="s">
         <v>16</v>
       </c>
-      <c r="C59" s="55">
+      <c r="C59">
         <v>1</v>
       </c>
     </row>
@@ -8982,7 +8988,7 @@
       <c r="A60" t="s">
         <v>623</v>
       </c>
-      <c r="C60" s="55">
+      <c r="C60">
         <v>1</v>
       </c>
     </row>
@@ -8993,7 +8999,7 @@
       <c r="B61" t="s">
         <v>22</v>
       </c>
-      <c r="C61" s="55">
+      <c r="C61">
         <v>1</v>
       </c>
     </row>
@@ -9001,7 +9007,7 @@
       <c r="A62" t="s">
         <v>624</v>
       </c>
-      <c r="C62" s="55">
+      <c r="C62">
         <v>1</v>
       </c>
     </row>
@@ -9012,7 +9018,7 @@
       <c r="B63" t="s">
         <v>591</v>
       </c>
-      <c r="C63" s="55">
+      <c r="C63">
         <v>1</v>
       </c>
     </row>
@@ -9020,7 +9026,7 @@
       <c r="A64" t="s">
         <v>625</v>
       </c>
-      <c r="C64" s="55">
+      <c r="C64">
         <v>1</v>
       </c>
     </row>
@@ -9031,7 +9037,7 @@
       <c r="B65" t="s">
         <v>591</v>
       </c>
-      <c r="C65" s="55">
+      <c r="C65">
         <v>1</v>
       </c>
     </row>
@@ -9039,7 +9045,7 @@
       <c r="A66" t="s">
         <v>626</v>
       </c>
-      <c r="C66" s="55">
+      <c r="C66">
         <v>1</v>
       </c>
     </row>
@@ -9050,7 +9056,7 @@
       <c r="B67" t="s">
         <v>98</v>
       </c>
-      <c r="C67" s="55">
+      <c r="C67">
         <v>1</v>
       </c>
     </row>
@@ -9058,7 +9064,7 @@
       <c r="A68" t="s">
         <v>627</v>
       </c>
-      <c r="C68" s="55">
+      <c r="C68">
         <v>1</v>
       </c>
     </row>
@@ -9069,7 +9075,7 @@
       <c r="B69" t="s">
         <v>22</v>
       </c>
-      <c r="C69" s="55">
+      <c r="C69">
         <v>1</v>
       </c>
     </row>
@@ -9077,7 +9083,7 @@
       <c r="A70" t="s">
         <v>628</v>
       </c>
-      <c r="C70" s="55">
+      <c r="C70">
         <v>1</v>
       </c>
     </row>
@@ -9088,7 +9094,7 @@
       <c r="B71" t="s">
         <v>16</v>
       </c>
-      <c r="C71" s="55">
+      <c r="C71">
         <v>1</v>
       </c>
     </row>
@@ -9096,7 +9102,7 @@
       <c r="A72" t="s">
         <v>629</v>
       </c>
-      <c r="C72" s="55">
+      <c r="C72">
         <v>1</v>
       </c>
     </row>
@@ -9107,7 +9113,7 @@
       <c r="B73" t="s">
         <v>591</v>
       </c>
-      <c r="C73" s="55">
+      <c r="C73">
         <v>1</v>
       </c>
     </row>
@@ -9115,7 +9121,7 @@
       <c r="A74" t="s">
         <v>630</v>
       </c>
-      <c r="C74" s="55">
+      <c r="C74">
         <v>1</v>
       </c>
     </row>
@@ -9126,7 +9132,7 @@
       <c r="B75" t="s">
         <v>98</v>
       </c>
-      <c r="C75" s="55">
+      <c r="C75">
         <v>1</v>
       </c>
     </row>
@@ -9134,7 +9140,7 @@
       <c r="A76" t="s">
         <v>631</v>
       </c>
-      <c r="C76" s="55">
+      <c r="C76">
         <v>1</v>
       </c>
     </row>
@@ -9145,7 +9151,7 @@
       <c r="B77" t="s">
         <v>22</v>
       </c>
-      <c r="C77" s="55">
+      <c r="C77">
         <v>1</v>
       </c>
     </row>
@@ -9153,7 +9159,7 @@
       <c r="A78" t="s">
         <v>632</v>
       </c>
-      <c r="C78" s="55">
+      <c r="C78">
         <v>1</v>
       </c>
     </row>
@@ -9164,7 +9170,7 @@
       <c r="B79" t="s">
         <v>591</v>
       </c>
-      <c r="C79" s="55">
+      <c r="C79">
         <v>1</v>
       </c>
     </row>
@@ -9172,7 +9178,7 @@
       <c r="A80" t="s">
         <v>633</v>
       </c>
-      <c r="C80" s="55">
+      <c r="C80">
         <v>1</v>
       </c>
     </row>
@@ -9183,7 +9189,7 @@
       <c r="B81" t="s">
         <v>16</v>
       </c>
-      <c r="C81" s="55">
+      <c r="C81">
         <v>1</v>
       </c>
     </row>
@@ -9191,7 +9197,7 @@
       <c r="A82" t="s">
         <v>634</v>
       </c>
-      <c r="C82" s="55">
+      <c r="C82">
         <v>1</v>
       </c>
     </row>
@@ -9202,7 +9208,7 @@
       <c r="B83" t="s">
         <v>591</v>
       </c>
-      <c r="C83" s="55">
+      <c r="C83">
         <v>1</v>
       </c>
     </row>
@@ -9210,7 +9216,7 @@
       <c r="A84" t="s">
         <v>635</v>
       </c>
-      <c r="C84" s="55">
+      <c r="C84">
         <v>1</v>
       </c>
     </row>
@@ -9221,7 +9227,7 @@
       <c r="B85" t="s">
         <v>98</v>
       </c>
-      <c r="C85" s="55">
+      <c r="C85">
         <v>1</v>
       </c>
     </row>
@@ -9229,7 +9235,7 @@
       <c r="A86" t="s">
         <v>636</v>
       </c>
-      <c r="C86" s="55">
+      <c r="C86">
         <v>1</v>
       </c>
     </row>
@@ -9240,7 +9246,7 @@
       <c r="B87" t="s">
         <v>16</v>
       </c>
-      <c r="C87" s="55">
+      <c r="C87">
         <v>1</v>
       </c>
     </row>
@@ -9248,7 +9254,7 @@
       <c r="A88" t="s">
         <v>637</v>
       </c>
-      <c r="C88" s="55">
+      <c r="C88">
         <v>1</v>
       </c>
     </row>
@@ -9259,7 +9265,7 @@
       <c r="B89" t="s">
         <v>22</v>
       </c>
-      <c r="C89" s="55">
+      <c r="C89">
         <v>1</v>
       </c>
     </row>
@@ -9267,7 +9273,7 @@
       <c r="A90" t="s">
         <v>638</v>
       </c>
-      <c r="C90" s="55">
+      <c r="C90">
         <v>1</v>
       </c>
     </row>
@@ -9278,7 +9284,7 @@
       <c r="B91" t="s">
         <v>16</v>
       </c>
-      <c r="C91" s="55">
+      <c r="C91">
         <v>1</v>
       </c>
     </row>
@@ -9286,7 +9292,7 @@
       <c r="A92" t="s">
         <v>639</v>
       </c>
-      <c r="C92" s="55">
+      <c r="C92">
         <v>1</v>
       </c>
     </row>
@@ -9297,7 +9303,7 @@
       <c r="B93" t="s">
         <v>16</v>
       </c>
-      <c r="C93" s="55">
+      <c r="C93">
         <v>1</v>
       </c>
     </row>
@@ -9305,7 +9311,7 @@
       <c r="A94" t="s">
         <v>640</v>
       </c>
-      <c r="C94" s="55">
+      <c r="C94">
         <v>1</v>
       </c>
     </row>
@@ -9316,7 +9322,7 @@
       <c r="B95" t="s">
         <v>16</v>
       </c>
-      <c r="C95" s="55">
+      <c r="C95">
         <v>1</v>
       </c>
     </row>
@@ -9324,7 +9330,7 @@
       <c r="A96" t="s">
         <v>641</v>
       </c>
-      <c r="C96" s="55">
+      <c r="C96">
         <v>1</v>
       </c>
     </row>
@@ -9335,7 +9341,7 @@
       <c r="B97" t="s">
         <v>22</v>
       </c>
-      <c r="C97" s="55">
+      <c r="C97">
         <v>1</v>
       </c>
     </row>
@@ -9343,7 +9349,7 @@
       <c r="A98" t="s">
         <v>642</v>
       </c>
-      <c r="C98" s="55">
+      <c r="C98">
         <v>1</v>
       </c>
     </row>
@@ -9354,7 +9360,7 @@
       <c r="B99" t="s">
         <v>22</v>
       </c>
-      <c r="C99" s="55">
+      <c r="C99">
         <v>1</v>
       </c>
     </row>
@@ -9362,7 +9368,7 @@
       <c r="A100" t="s">
         <v>643</v>
       </c>
-      <c r="C100" s="55">
+      <c r="C100">
         <v>1</v>
       </c>
     </row>
@@ -9373,7 +9379,7 @@
       <c r="B101" t="s">
         <v>98</v>
       </c>
-      <c r="C101" s="55">
+      <c r="C101">
         <v>1</v>
       </c>
     </row>
@@ -9381,7 +9387,7 @@
       <c r="A102" t="s">
         <v>644</v>
       </c>
-      <c r="C102" s="55">
+      <c r="C102">
         <v>1</v>
       </c>
     </row>
@@ -9392,7 +9398,7 @@
       <c r="B103" t="s">
         <v>16</v>
       </c>
-      <c r="C103" s="55">
+      <c r="C103">
         <v>1</v>
       </c>
     </row>
@@ -9400,7 +9406,7 @@
       <c r="A104" t="s">
         <v>645</v>
       </c>
-      <c r="C104" s="55">
+      <c r="C104">
         <v>1</v>
       </c>
     </row>
@@ -9411,7 +9417,7 @@
       <c r="B105" t="s">
         <v>16</v>
       </c>
-      <c r="C105" s="55">
+      <c r="C105">
         <v>1</v>
       </c>
     </row>
@@ -9419,7 +9425,7 @@
       <c r="A106" t="s">
         <v>646</v>
       </c>
-      <c r="C106" s="55">
+      <c r="C106">
         <v>1</v>
       </c>
     </row>
@@ -9430,7 +9436,7 @@
       <c r="B107" t="s">
         <v>16</v>
       </c>
-      <c r="C107" s="55">
+      <c r="C107">
         <v>1</v>
       </c>
     </row>
@@ -9438,7 +9444,7 @@
       <c r="A108" t="s">
         <v>647</v>
       </c>
-      <c r="C108" s="55">
+      <c r="C108">
         <v>1</v>
       </c>
     </row>
@@ -9449,7 +9455,7 @@
       <c r="B109" t="s">
         <v>591</v>
       </c>
-      <c r="C109" s="55">
+      <c r="C109">
         <v>1</v>
       </c>
     </row>
@@ -9457,7 +9463,7 @@
       <c r="A110" t="s">
         <v>648</v>
       </c>
-      <c r="C110" s="55">
+      <c r="C110">
         <v>1</v>
       </c>
     </row>
@@ -9468,7 +9474,7 @@
       <c r="B111" t="s">
         <v>591</v>
       </c>
-      <c r="C111" s="55">
+      <c r="C111">
         <v>1</v>
       </c>
     </row>
@@ -9476,7 +9482,7 @@
       <c r="A112" t="s">
         <v>649</v>
       </c>
-      <c r="C112" s="55">
+      <c r="C112">
         <v>1</v>
       </c>
     </row>
@@ -9487,7 +9493,7 @@
       <c r="B113" t="s">
         <v>22</v>
       </c>
-      <c r="C113" s="55">
+      <c r="C113">
         <v>1</v>
       </c>
     </row>
@@ -9495,7 +9501,7 @@
       <c r="A114" t="s">
         <v>650</v>
       </c>
-      <c r="C114" s="55">
+      <c r="C114">
         <v>1</v>
       </c>
     </row>
@@ -9506,7 +9512,7 @@
       <c r="B115" t="s">
         <v>591</v>
       </c>
-      <c r="C115" s="55">
+      <c r="C115">
         <v>1</v>
       </c>
     </row>
@@ -9514,7 +9520,7 @@
       <c r="A116" t="s">
         <v>651</v>
       </c>
-      <c r="C116" s="55">
+      <c r="C116">
         <v>1</v>
       </c>
     </row>
@@ -9525,7 +9531,7 @@
       <c r="B117" t="s">
         <v>98</v>
       </c>
-      <c r="C117" s="55">
+      <c r="C117">
         <v>1</v>
       </c>
     </row>
@@ -9533,7 +9539,7 @@
       <c r="A118" t="s">
         <v>652</v>
       </c>
-      <c r="C118" s="55">
+      <c r="C118">
         <v>1</v>
       </c>
     </row>
@@ -9544,7 +9550,7 @@
       <c r="B119" t="s">
         <v>22</v>
       </c>
-      <c r="C119" s="55">
+      <c r="C119">
         <v>1</v>
       </c>
     </row>
@@ -9552,7 +9558,7 @@
       <c r="A120" t="s">
         <v>653</v>
       </c>
-      <c r="C120" s="55">
+      <c r="C120">
         <v>1</v>
       </c>
     </row>
@@ -9563,7 +9569,7 @@
       <c r="B121" t="s">
         <v>22</v>
       </c>
-      <c r="C121" s="55">
+      <c r="C121">
         <v>1</v>
       </c>
     </row>
@@ -9571,7 +9577,7 @@
       <c r="A122" t="s">
         <v>654</v>
       </c>
-      <c r="C122" s="55">
+      <c r="C122">
         <v>1</v>
       </c>
     </row>
@@ -9582,7 +9588,7 @@
       <c r="B123" t="s">
         <v>22</v>
       </c>
-      <c r="C123" s="55">
+      <c r="C123">
         <v>1</v>
       </c>
     </row>
@@ -9590,7 +9596,7 @@
       <c r="A124" t="s">
         <v>655</v>
       </c>
-      <c r="C124" s="55">
+      <c r="C124">
         <v>1</v>
       </c>
     </row>
@@ -9601,7 +9607,7 @@
       <c r="B125" t="s">
         <v>16</v>
       </c>
-      <c r="C125" s="55">
+      <c r="C125">
         <v>1</v>
       </c>
     </row>
@@ -9609,7 +9615,7 @@
       <c r="A126" t="s">
         <v>656</v>
       </c>
-      <c r="C126" s="55">
+      <c r="C126">
         <v>1</v>
       </c>
     </row>
@@ -9620,7 +9626,7 @@
       <c r="B127" t="s">
         <v>16</v>
       </c>
-      <c r="C127" s="55">
+      <c r="C127">
         <v>1</v>
       </c>
     </row>
@@ -9628,7 +9634,7 @@
       <c r="A128" t="s">
         <v>657</v>
       </c>
-      <c r="C128" s="55">
+      <c r="C128">
         <v>1</v>
       </c>
     </row>
@@ -9639,7 +9645,7 @@
       <c r="B129" t="s">
         <v>22</v>
       </c>
-      <c r="C129" s="55">
+      <c r="C129">
         <v>1</v>
       </c>
     </row>
@@ -9647,7 +9653,7 @@
       <c r="A130" t="s">
         <v>658</v>
       </c>
-      <c r="C130" s="55">
+      <c r="C130">
         <v>1</v>
       </c>
     </row>
@@ -9658,7 +9664,7 @@
       <c r="B131" t="s">
         <v>22</v>
       </c>
-      <c r="C131" s="55">
+      <c r="C131">
         <v>1</v>
       </c>
     </row>
@@ -9666,7 +9672,7 @@
       <c r="A132" t="s">
         <v>659</v>
       </c>
-      <c r="C132" s="55">
+      <c r="C132">
         <v>1</v>
       </c>
     </row>
@@ -9677,7 +9683,7 @@
       <c r="B133" t="s">
         <v>22</v>
       </c>
-      <c r="C133" s="55">
+      <c r="C133">
         <v>1</v>
       </c>
     </row>
@@ -9685,7 +9691,7 @@
       <c r="A134" t="s">
         <v>660</v>
       </c>
-      <c r="C134" s="55">
+      <c r="C134">
         <v>1</v>
       </c>
     </row>
@@ -9696,7 +9702,7 @@
       <c r="B135" t="s">
         <v>98</v>
       </c>
-      <c r="C135" s="55">
+      <c r="C135">
         <v>1</v>
       </c>
     </row>
@@ -9704,7 +9710,7 @@
       <c r="A136" t="s">
         <v>661</v>
       </c>
-      <c r="C136" s="55">
+      <c r="C136">
         <v>1</v>
       </c>
     </row>
@@ -9715,7 +9721,7 @@
       <c r="B137" t="s">
         <v>98</v>
       </c>
-      <c r="C137" s="55">
+      <c r="C137">
         <v>1</v>
       </c>
     </row>
@@ -9723,7 +9729,7 @@
       <c r="A138" t="s">
         <v>662</v>
       </c>
-      <c r="C138" s="55">
+      <c r="C138">
         <v>1</v>
       </c>
     </row>
@@ -9734,7 +9740,7 @@
       <c r="B139" t="s">
         <v>16</v>
       </c>
-      <c r="C139" s="55">
+      <c r="C139">
         <v>1</v>
       </c>
     </row>
@@ -9742,7 +9748,7 @@
       <c r="A140" t="s">
         <v>663</v>
       </c>
-      <c r="C140" s="55">
+      <c r="C140">
         <v>1</v>
       </c>
     </row>
@@ -9753,7 +9759,7 @@
       <c r="B141" t="s">
         <v>98</v>
       </c>
-      <c r="C141" s="55">
+      <c r="C141">
         <v>1</v>
       </c>
     </row>
@@ -9761,7 +9767,7 @@
       <c r="A142" t="s">
         <v>664</v>
       </c>
-      <c r="C142" s="55">
+      <c r="C142">
         <v>1</v>
       </c>
     </row>
@@ -9772,7 +9778,7 @@
       <c r="B143" t="s">
         <v>591</v>
       </c>
-      <c r="C143" s="55">
+      <c r="C143">
         <v>1</v>
       </c>
     </row>
@@ -9780,7 +9786,7 @@
       <c r="A144" t="s">
         <v>665</v>
       </c>
-      <c r="C144" s="55">
+      <c r="C144">
         <v>1</v>
       </c>
     </row>
@@ -9791,7 +9797,7 @@
       <c r="B145" t="s">
         <v>22</v>
       </c>
-      <c r="C145" s="55">
+      <c r="C145">
         <v>1</v>
       </c>
     </row>
@@ -9799,7 +9805,7 @@
       <c r="A146" t="s">
         <v>666</v>
       </c>
-      <c r="C146" s="55">
+      <c r="C146">
         <v>1</v>
       </c>
     </row>
@@ -9810,7 +9816,7 @@
       <c r="B147" t="s">
         <v>591</v>
       </c>
-      <c r="C147" s="55">
+      <c r="C147">
         <v>1</v>
       </c>
     </row>
@@ -9818,7 +9824,7 @@
       <c r="A148" t="s">
         <v>667</v>
       </c>
-      <c r="C148" s="55">
+      <c r="C148">
         <v>1</v>
       </c>
     </row>
@@ -9829,7 +9835,7 @@
       <c r="B149" t="s">
         <v>22</v>
       </c>
-      <c r="C149" s="55">
+      <c r="C149">
         <v>1</v>
       </c>
     </row>
@@ -9837,7 +9843,7 @@
       <c r="A150" t="s">
         <v>668</v>
       </c>
-      <c r="C150" s="55">
+      <c r="C150">
         <v>1</v>
       </c>
     </row>
@@ -9848,7 +9854,7 @@
       <c r="B151" t="s">
         <v>591</v>
       </c>
-      <c r="C151" s="55">
+      <c r="C151">
         <v>1</v>
       </c>
     </row>
@@ -9856,7 +9862,7 @@
       <c r="A152" t="s">
         <v>669</v>
       </c>
-      <c r="C152" s="55">
+      <c r="C152">
         <v>1</v>
       </c>
     </row>
@@ -9867,7 +9873,7 @@
       <c r="B153" t="s">
         <v>591</v>
       </c>
-      <c r="C153" s="55">
+      <c r="C153">
         <v>1</v>
       </c>
     </row>
@@ -9875,7 +9881,7 @@
       <c r="A154" t="s">
         <v>670</v>
       </c>
-      <c r="C154" s="55">
+      <c r="C154">
         <v>1</v>
       </c>
     </row>
@@ -9886,7 +9892,7 @@
       <c r="B155" t="s">
         <v>22</v>
       </c>
-      <c r="C155" s="55">
+      <c r="C155">
         <v>1</v>
       </c>
     </row>
@@ -9894,7 +9900,7 @@
       <c r="A156" t="s">
         <v>671</v>
       </c>
-      <c r="C156" s="55">
+      <c r="C156">
         <v>1</v>
       </c>
     </row>
@@ -9905,7 +9911,7 @@
       <c r="B157" t="s">
         <v>591</v>
       </c>
-      <c r="C157" s="55">
+      <c r="C157">
         <v>1</v>
       </c>
     </row>
@@ -9913,7 +9919,7 @@
       <c r="A158" t="s">
         <v>672</v>
       </c>
-      <c r="C158" s="55">
+      <c r="C158">
         <v>1</v>
       </c>
     </row>
@@ -9924,7 +9930,7 @@
       <c r="B159" t="s">
         <v>22</v>
       </c>
-      <c r="C159" s="55">
+      <c r="C159">
         <v>1</v>
       </c>
     </row>
@@ -9932,7 +9938,7 @@
       <c r="A160" t="s">
         <v>673</v>
       </c>
-      <c r="C160" s="55">
+      <c r="C160">
         <v>1</v>
       </c>
     </row>
@@ -9943,7 +9949,7 @@
       <c r="B161" t="s">
         <v>16</v>
       </c>
-      <c r="C161" s="55">
+      <c r="C161">
         <v>1</v>
       </c>
     </row>
@@ -9951,7 +9957,7 @@
       <c r="A162" t="s">
         <v>674</v>
       </c>
-      <c r="C162" s="55">
+      <c r="C162">
         <v>1</v>
       </c>
     </row>
@@ -9962,7 +9968,7 @@
       <c r="B163" t="s">
         <v>98</v>
       </c>
-      <c r="C163" s="55">
+      <c r="C163">
         <v>1</v>
       </c>
     </row>
@@ -9970,7 +9976,7 @@
       <c r="A164" t="s">
         <v>675</v>
       </c>
-      <c r="C164" s="55">
+      <c r="C164">
         <v>1</v>
       </c>
     </row>
@@ -9981,7 +9987,7 @@
       <c r="B165" t="s">
         <v>22</v>
       </c>
-      <c r="C165" s="55">
+      <c r="C165">
         <v>1</v>
       </c>
     </row>
@@ -9989,7 +9995,7 @@
       <c r="A166" t="s">
         <v>676</v>
       </c>
-      <c r="C166" s="55">
+      <c r="C166">
         <v>1</v>
       </c>
     </row>
@@ -10000,7 +10006,7 @@
       <c r="B167" t="s">
         <v>22</v>
       </c>
-      <c r="C167" s="55">
+      <c r="C167">
         <v>1</v>
       </c>
     </row>
@@ -10008,7 +10014,7 @@
       <c r="A168" t="s">
         <v>677</v>
       </c>
-      <c r="C168" s="55">
+      <c r="C168">
         <v>1</v>
       </c>
     </row>
@@ -10019,7 +10025,7 @@
       <c r="B169" t="s">
         <v>16</v>
       </c>
-      <c r="C169" s="55">
+      <c r="C169">
         <v>1</v>
       </c>
     </row>
@@ -10027,7 +10033,7 @@
       <c r="A170" t="s">
         <v>678</v>
       </c>
-      <c r="C170" s="55">
+      <c r="C170">
         <v>1</v>
       </c>
     </row>
@@ -10038,7 +10044,7 @@
       <c r="B171" t="s">
         <v>591</v>
       </c>
-      <c r="C171" s="55">
+      <c r="C171">
         <v>1</v>
       </c>
     </row>
@@ -10046,7 +10052,7 @@
       <c r="A172" t="s">
         <v>679</v>
       </c>
-      <c r="C172" s="55">
+      <c r="C172">
         <v>1</v>
       </c>
     </row>
@@ -10057,7 +10063,7 @@
       <c r="B173" t="s">
         <v>591</v>
       </c>
-      <c r="C173" s="55">
+      <c r="C173">
         <v>1</v>
       </c>
     </row>
@@ -10065,7 +10071,7 @@
       <c r="A174" t="s">
         <v>680</v>
       </c>
-      <c r="C174" s="55">
+      <c r="C174">
         <v>1</v>
       </c>
     </row>
@@ -10076,7 +10082,7 @@
       <c r="B175" t="s">
         <v>591</v>
       </c>
-      <c r="C175" s="55">
+      <c r="C175">
         <v>1</v>
       </c>
     </row>
@@ -10084,7 +10090,7 @@
       <c r="A176" t="s">
         <v>681</v>
       </c>
-      <c r="C176" s="55">
+      <c r="C176">
         <v>1</v>
       </c>
     </row>
@@ -10095,7 +10101,7 @@
       <c r="B177" t="s">
         <v>591</v>
       </c>
-      <c r="C177" s="55">
+      <c r="C177">
         <v>1</v>
       </c>
     </row>
@@ -10103,7 +10109,7 @@
       <c r="A178" t="s">
         <v>682</v>
       </c>
-      <c r="C178" s="55">
+      <c r="C178">
         <v>1</v>
       </c>
     </row>
@@ -10114,7 +10120,7 @@
       <c r="B179" t="s">
         <v>16</v>
       </c>
-      <c r="C179" s="55">
+      <c r="C179">
         <v>1</v>
       </c>
     </row>
@@ -10122,7 +10128,7 @@
       <c r="B180" t="s">
         <v>591</v>
       </c>
-      <c r="C180" s="55">
+      <c r="C180">
         <v>1</v>
       </c>
     </row>
@@ -10130,7 +10136,7 @@
       <c r="A181" t="s">
         <v>683</v>
       </c>
-      <c r="C181" s="55">
+      <c r="C181">
         <v>2</v>
       </c>
     </row>
@@ -10141,7 +10147,7 @@
       <c r="B182" t="s">
         <v>22</v>
       </c>
-      <c r="C182" s="55">
+      <c r="C182">
         <v>1</v>
       </c>
     </row>
@@ -10149,7 +10155,7 @@
       <c r="A183" t="s">
         <v>684</v>
       </c>
-      <c r="C183" s="55">
+      <c r="C183">
         <v>1</v>
       </c>
     </row>
@@ -10160,7 +10166,7 @@
       <c r="B184" t="s">
         <v>591</v>
       </c>
-      <c r="C184" s="55">
+      <c r="C184">
         <v>1</v>
       </c>
     </row>
@@ -10168,7 +10174,7 @@
       <c r="A185" t="s">
         <v>685</v>
       </c>
-      <c r="C185" s="55">
+      <c r="C185">
         <v>1</v>
       </c>
     </row>
@@ -10179,7 +10185,7 @@
       <c r="B186" t="s">
         <v>98</v>
       </c>
-      <c r="C186" s="55">
+      <c r="C186">
         <v>1</v>
       </c>
     </row>
@@ -10187,7 +10193,7 @@
       <c r="A187" t="s">
         <v>686</v>
       </c>
-      <c r="C187" s="55">
+      <c r="C187">
         <v>1</v>
       </c>
     </row>
@@ -10198,7 +10204,7 @@
       <c r="B188" t="s">
         <v>591</v>
       </c>
-      <c r="C188" s="55">
+      <c r="C188">
         <v>1</v>
       </c>
     </row>
@@ -10206,7 +10212,7 @@
       <c r="A189" t="s">
         <v>687</v>
       </c>
-      <c r="C189" s="55">
+      <c r="C189">
         <v>1</v>
       </c>
     </row>
@@ -10217,7 +10223,7 @@
       <c r="B190" t="s">
         <v>591</v>
       </c>
-      <c r="C190" s="55">
+      <c r="C190">
         <v>1</v>
       </c>
     </row>
@@ -10225,7 +10231,7 @@
       <c r="A191" t="s">
         <v>688</v>
       </c>
-      <c r="C191" s="55">
+      <c r="C191">
         <v>1</v>
       </c>
     </row>
@@ -10236,7 +10242,7 @@
       <c r="B192" t="s">
         <v>591</v>
       </c>
-      <c r="C192" s="55">
+      <c r="C192">
         <v>1</v>
       </c>
     </row>
@@ -10244,7 +10250,7 @@
       <c r="A193" t="s">
         <v>689</v>
       </c>
-      <c r="C193" s="55">
+      <c r="C193">
         <v>1</v>
       </c>
     </row>
@@ -10255,7 +10261,7 @@
       <c r="B194" t="s">
         <v>22</v>
       </c>
-      <c r="C194" s="55">
+      <c r="C194">
         <v>1</v>
       </c>
     </row>
@@ -10263,7 +10269,7 @@
       <c r="A195" t="s">
         <v>690</v>
       </c>
-      <c r="C195" s="55">
+      <c r="C195">
         <v>1</v>
       </c>
     </row>
@@ -10274,7 +10280,7 @@
       <c r="B196" t="s">
         <v>98</v>
       </c>
-      <c r="C196" s="55">
+      <c r="C196">
         <v>1</v>
       </c>
     </row>
@@ -10282,7 +10288,7 @@
       <c r="A197" t="s">
         <v>691</v>
       </c>
-      <c r="C197" s="55">
+      <c r="C197">
         <v>1</v>
       </c>
     </row>
@@ -10293,7 +10299,7 @@
       <c r="B198" t="s">
         <v>22</v>
       </c>
-      <c r="C198" s="55">
+      <c r="C198">
         <v>1</v>
       </c>
     </row>
@@ -10301,7 +10307,7 @@
       <c r="A199" t="s">
         <v>692</v>
       </c>
-      <c r="C199" s="55">
+      <c r="C199">
         <v>1</v>
       </c>
     </row>
@@ -10312,7 +10318,7 @@
       <c r="B200" t="s">
         <v>16</v>
       </c>
-      <c r="C200" s="55">
+      <c r="C200">
         <v>1</v>
       </c>
     </row>
@@ -10320,7 +10326,7 @@
       <c r="A201" t="s">
         <v>693</v>
       </c>
-      <c r="C201" s="55">
+      <c r="C201">
         <v>1</v>
       </c>
     </row>
@@ -10331,7 +10337,7 @@
       <c r="B202" t="s">
         <v>16</v>
       </c>
-      <c r="C202" s="55">
+      <c r="C202">
         <v>1</v>
       </c>
     </row>
@@ -10339,7 +10345,7 @@
       <c r="A203" t="s">
         <v>694</v>
       </c>
-      <c r="C203" s="55">
+      <c r="C203">
         <v>1</v>
       </c>
     </row>
@@ -10350,7 +10356,7 @@
       <c r="B204" t="s">
         <v>22</v>
       </c>
-      <c r="C204" s="55">
+      <c r="C204">
         <v>1</v>
       </c>
     </row>
@@ -10358,7 +10364,7 @@
       <c r="A205" t="s">
         <v>695</v>
       </c>
-      <c r="C205" s="55">
+      <c r="C205">
         <v>1</v>
       </c>
     </row>
@@ -10369,7 +10375,7 @@
       <c r="B206" t="s">
         <v>22</v>
       </c>
-      <c r="C206" s="55">
+      <c r="C206">
         <v>1</v>
       </c>
     </row>
@@ -10377,7 +10383,7 @@
       <c r="A207" t="s">
         <v>696</v>
       </c>
-      <c r="C207" s="55">
+      <c r="C207">
         <v>1</v>
       </c>
     </row>
@@ -10388,7 +10394,7 @@
       <c r="B208" t="s">
         <v>98</v>
       </c>
-      <c r="C208" s="55">
+      <c r="C208">
         <v>1</v>
       </c>
     </row>
@@ -10396,7 +10402,7 @@
       <c r="A209" t="s">
         <v>697</v>
       </c>
-      <c r="C209" s="55">
+      <c r="C209">
         <v>1</v>
       </c>
     </row>
@@ -10407,7 +10413,7 @@
       <c r="B210" t="s">
         <v>22</v>
       </c>
-      <c r="C210" s="55">
+      <c r="C210">
         <v>1</v>
       </c>
     </row>
@@ -10415,7 +10421,7 @@
       <c r="A211" t="s">
         <v>698</v>
       </c>
-      <c r="C211" s="55">
+      <c r="C211">
         <v>1</v>
       </c>
     </row>
@@ -10426,7 +10432,7 @@
       <c r="B212" t="s">
         <v>16</v>
       </c>
-      <c r="C212" s="55">
+      <c r="C212">
         <v>1</v>
       </c>
     </row>
@@ -10434,7 +10440,7 @@
       <c r="A213" t="s">
         <v>699</v>
       </c>
-      <c r="C213" s="55">
+      <c r="C213">
         <v>1</v>
       </c>
     </row>
@@ -10445,7 +10451,7 @@
       <c r="B214" t="s">
         <v>22</v>
       </c>
-      <c r="C214" s="55">
+      <c r="C214">
         <v>1</v>
       </c>
     </row>
@@ -10453,7 +10459,7 @@
       <c r="A215" t="s">
         <v>700</v>
       </c>
-      <c r="C215" s="55">
+      <c r="C215">
         <v>1</v>
       </c>
     </row>
@@ -10464,7 +10470,7 @@
       <c r="B216" t="s">
         <v>16</v>
       </c>
-      <c r="C216" s="55">
+      <c r="C216">
         <v>1</v>
       </c>
     </row>
@@ -10472,7 +10478,7 @@
       <c r="A217" t="s">
         <v>701</v>
       </c>
-      <c r="C217" s="55">
+      <c r="C217">
         <v>1</v>
       </c>
     </row>
@@ -10483,7 +10489,7 @@
       <c r="B218" t="s">
         <v>591</v>
       </c>
-      <c r="C218" s="55">
+      <c r="C218">
         <v>1</v>
       </c>
     </row>
@@ -10491,7 +10497,7 @@
       <c r="A219" t="s">
         <v>702</v>
       </c>
-      <c r="C219" s="55">
+      <c r="C219">
         <v>1</v>
       </c>
     </row>
@@ -10502,7 +10508,7 @@
       <c r="B220" t="s">
         <v>591</v>
       </c>
-      <c r="C220" s="55">
+      <c r="C220">
         <v>1</v>
       </c>
     </row>
@@ -10510,7 +10516,7 @@
       <c r="A221" t="s">
         <v>703</v>
       </c>
-      <c r="C221" s="55">
+      <c r="C221">
         <v>1</v>
       </c>
     </row>
@@ -10521,7 +10527,7 @@
       <c r="B222" t="s">
         <v>16</v>
       </c>
-      <c r="C222" s="55">
+      <c r="C222">
         <v>1</v>
       </c>
     </row>
@@ -10529,7 +10535,7 @@
       <c r="A223" t="s">
         <v>704</v>
       </c>
-      <c r="C223" s="55">
+      <c r="C223">
         <v>1</v>
       </c>
     </row>
@@ -10540,7 +10546,7 @@
       <c r="B224" t="s">
         <v>16</v>
       </c>
-      <c r="C224" s="55">
+      <c r="C224">
         <v>1</v>
       </c>
     </row>
@@ -10548,7 +10554,7 @@
       <c r="A225" t="s">
         <v>705</v>
       </c>
-      <c r="C225" s="55">
+      <c r="C225">
         <v>1</v>
       </c>
     </row>
@@ -10559,7 +10565,7 @@
       <c r="B226" t="s">
         <v>16</v>
       </c>
-      <c r="C226" s="55">
+      <c r="C226">
         <v>1</v>
       </c>
     </row>
@@ -10567,7 +10573,7 @@
       <c r="A227" t="s">
         <v>706</v>
       </c>
-      <c r="C227" s="55">
+      <c r="C227">
         <v>1</v>
       </c>
     </row>
@@ -10578,7 +10584,7 @@
       <c r="B228" t="s">
         <v>16</v>
       </c>
-      <c r="C228" s="55">
+      <c r="C228">
         <v>1</v>
       </c>
     </row>
@@ -10586,7 +10592,7 @@
       <c r="A229" t="s">
         <v>707</v>
       </c>
-      <c r="C229" s="55">
+      <c r="C229">
         <v>1</v>
       </c>
     </row>
@@ -10597,7 +10603,7 @@
       <c r="B230" t="s">
         <v>22</v>
       </c>
-      <c r="C230" s="55">
+      <c r="C230">
         <v>1</v>
       </c>
     </row>
@@ -10605,7 +10611,7 @@
       <c r="A231" t="s">
         <v>708</v>
       </c>
-      <c r="C231" s="55">
+      <c r="C231">
         <v>1</v>
       </c>
     </row>
@@ -10616,7 +10622,7 @@
       <c r="B232" t="s">
         <v>16</v>
       </c>
-      <c r="C232" s="55">
+      <c r="C232">
         <v>1</v>
       </c>
     </row>
@@ -10624,7 +10630,7 @@
       <c r="A233" t="s">
         <v>709</v>
       </c>
-      <c r="C233" s="55">
+      <c r="C233">
         <v>1</v>
       </c>
     </row>
@@ -10635,7 +10641,7 @@
       <c r="B234" t="s">
         <v>22</v>
       </c>
-      <c r="C234" s="55">
+      <c r="C234">
         <v>1</v>
       </c>
     </row>
@@ -10643,7 +10649,7 @@
       <c r="A235" t="s">
         <v>710</v>
       </c>
-      <c r="C235" s="55">
+      <c r="C235">
         <v>1</v>
       </c>
     </row>
@@ -10654,7 +10660,7 @@
       <c r="B236" t="s">
         <v>16</v>
       </c>
-      <c r="C236" s="55">
+      <c r="C236">
         <v>1</v>
       </c>
     </row>
@@ -10662,7 +10668,7 @@
       <c r="A237" t="s">
         <v>711</v>
       </c>
-      <c r="C237" s="55">
+      <c r="C237">
         <v>1</v>
       </c>
     </row>
@@ -10673,7 +10679,7 @@
       <c r="B238" t="s">
         <v>22</v>
       </c>
-      <c r="C238" s="55">
+      <c r="C238">
         <v>1</v>
       </c>
     </row>
@@ -10681,7 +10687,7 @@
       <c r="A239" t="s">
         <v>712</v>
       </c>
-      <c r="C239" s="55">
+      <c r="C239">
         <v>1</v>
       </c>
     </row>
@@ -10692,7 +10698,7 @@
       <c r="B240" t="s">
         <v>591</v>
       </c>
-      <c r="C240" s="55">
+      <c r="C240">
         <v>1</v>
       </c>
     </row>
@@ -10700,7 +10706,7 @@
       <c r="A241" t="s">
         <v>713</v>
       </c>
-      <c r="C241" s="55">
+      <c r="C241">
         <v>1</v>
       </c>
     </row>
@@ -10711,7 +10717,7 @@
       <c r="B242" t="s">
         <v>98</v>
       </c>
-      <c r="C242" s="55">
+      <c r="C242">
         <v>1</v>
       </c>
     </row>
@@ -10719,7 +10725,7 @@
       <c r="A243" t="s">
         <v>714</v>
       </c>
-      <c r="C243" s="55">
+      <c r="C243">
         <v>1</v>
       </c>
     </row>
@@ -10730,7 +10736,7 @@
       <c r="B244" t="s">
         <v>16</v>
       </c>
-      <c r="C244" s="55">
+      <c r="C244">
         <v>1</v>
       </c>
     </row>
@@ -10738,7 +10744,7 @@
       <c r="A245" t="s">
         <v>715</v>
       </c>
-      <c r="C245" s="55">
+      <c r="C245">
         <v>1</v>
       </c>
     </row>
@@ -10749,7 +10755,7 @@
       <c r="B246" t="s">
         <v>16</v>
       </c>
-      <c r="C246" s="55">
+      <c r="C246">
         <v>1</v>
       </c>
     </row>
@@ -10757,7 +10763,7 @@
       <c r="A247" t="s">
         <v>716</v>
       </c>
-      <c r="C247" s="55">
+      <c r="C247">
         <v>1</v>
       </c>
     </row>
@@ -10768,7 +10774,7 @@
       <c r="B248" t="s">
         <v>16</v>
       </c>
-      <c r="C248" s="55">
+      <c r="C248">
         <v>1</v>
       </c>
     </row>
@@ -10776,7 +10782,7 @@
       <c r="A249" t="s">
         <v>717</v>
       </c>
-      <c r="C249" s="55">
+      <c r="C249">
         <v>1</v>
       </c>
     </row>
@@ -10787,7 +10793,7 @@
       <c r="B250" t="s">
         <v>16</v>
       </c>
-      <c r="C250" s="55">
+      <c r="C250">
         <v>1</v>
       </c>
     </row>
@@ -10795,7 +10801,7 @@
       <c r="A251" t="s">
         <v>718</v>
       </c>
-      <c r="C251" s="55">
+      <c r="C251">
         <v>1</v>
       </c>
     </row>
@@ -10806,7 +10812,7 @@
       <c r="B252" t="s">
         <v>16</v>
       </c>
-      <c r="C252" s="55">
+      <c r="C252">
         <v>1</v>
       </c>
     </row>
@@ -10814,7 +10820,7 @@
       <c r="A253" t="s">
         <v>719</v>
       </c>
-      <c r="C253" s="55">
+      <c r="C253">
         <v>1</v>
       </c>
     </row>
@@ -10825,7 +10831,7 @@
       <c r="B254" t="s">
         <v>22</v>
       </c>
-      <c r="C254" s="55">
+      <c r="C254">
         <v>1</v>
       </c>
     </row>
@@ -10833,7 +10839,7 @@
       <c r="A255" t="s">
         <v>720</v>
       </c>
-      <c r="C255" s="55">
+      <c r="C255">
         <v>1</v>
       </c>
     </row>
@@ -10844,7 +10850,7 @@
       <c r="B256" t="s">
         <v>591</v>
       </c>
-      <c r="C256" s="55">
+      <c r="C256">
         <v>1</v>
       </c>
     </row>
@@ -10852,7 +10858,7 @@
       <c r="A257" t="s">
         <v>721</v>
       </c>
-      <c r="C257" s="55">
+      <c r="C257">
         <v>1</v>
       </c>
     </row>
@@ -10863,7 +10869,7 @@
       <c r="B258" t="s">
         <v>16</v>
       </c>
-      <c r="C258" s="55">
+      <c r="C258">
         <v>1</v>
       </c>
     </row>
@@ -10871,7 +10877,7 @@
       <c r="A259" t="s">
         <v>722</v>
       </c>
-      <c r="C259" s="55">
+      <c r="C259">
         <v>1</v>
       </c>
     </row>
@@ -10882,7 +10888,7 @@
       <c r="B260" t="s">
         <v>591</v>
       </c>
-      <c r="C260" s="55">
+      <c r="C260">
         <v>1</v>
       </c>
     </row>
@@ -10890,7 +10896,7 @@
       <c r="A261" t="s">
         <v>723</v>
       </c>
-      <c r="C261" s="55">
+      <c r="C261">
         <v>1</v>
       </c>
     </row>
@@ -10901,7 +10907,7 @@
       <c r="B262" t="s">
         <v>22</v>
       </c>
-      <c r="C262" s="55">
+      <c r="C262">
         <v>1</v>
       </c>
     </row>
@@ -10909,7 +10915,7 @@
       <c r="A263" t="s">
         <v>724</v>
       </c>
-      <c r="C263" s="55">
+      <c r="C263">
         <v>1</v>
       </c>
     </row>
@@ -10920,7 +10926,7 @@
       <c r="B264" t="s">
         <v>591</v>
       </c>
-      <c r="C264" s="55">
+      <c r="C264">
         <v>1</v>
       </c>
     </row>
@@ -10928,7 +10934,7 @@
       <c r="A265" t="s">
         <v>725</v>
       </c>
-      <c r="C265" s="55">
+      <c r="C265">
         <v>1</v>
       </c>
     </row>
@@ -10939,7 +10945,7 @@
       <c r="B266" t="s">
         <v>16</v>
       </c>
-      <c r="C266" s="55">
+      <c r="C266">
         <v>1</v>
       </c>
     </row>
@@ -10947,7 +10953,7 @@
       <c r="A267" t="s">
         <v>726</v>
       </c>
-      <c r="C267" s="55">
+      <c r="C267">
         <v>1</v>
       </c>
     </row>
@@ -10958,7 +10964,7 @@
       <c r="B268" t="s">
         <v>22</v>
       </c>
-      <c r="C268" s="55">
+      <c r="C268">
         <v>1</v>
       </c>
     </row>
@@ -10966,7 +10972,7 @@
       <c r="A269" t="s">
         <v>727</v>
       </c>
-      <c r="C269" s="55">
+      <c r="C269">
         <v>1</v>
       </c>
     </row>
@@ -10977,7 +10983,7 @@
       <c r="B270" t="s">
         <v>591</v>
       </c>
-      <c r="C270" s="55">
+      <c r="C270">
         <v>1</v>
       </c>
     </row>
@@ -10985,7 +10991,7 @@
       <c r="A271" t="s">
         <v>728</v>
       </c>
-      <c r="C271" s="55">
+      <c r="C271">
         <v>1</v>
       </c>
     </row>
@@ -10996,7 +11002,7 @@
       <c r="B272" t="s">
         <v>98</v>
       </c>
-      <c r="C272" s="55">
+      <c r="C272">
         <v>1</v>
       </c>
     </row>
@@ -11004,7 +11010,7 @@
       <c r="A273" t="s">
         <v>729</v>
       </c>
-      <c r="C273" s="55">
+      <c r="C273">
         <v>1</v>
       </c>
     </row>
@@ -11015,7 +11021,7 @@
       <c r="B274" t="s">
         <v>16</v>
       </c>
-      <c r="C274" s="55">
+      <c r="C274">
         <v>1</v>
       </c>
     </row>
@@ -11023,7 +11029,7 @@
       <c r="A275" t="s">
         <v>730</v>
       </c>
-      <c r="C275" s="55">
+      <c r="C275">
         <v>1</v>
       </c>
     </row>
@@ -11034,7 +11040,7 @@
       <c r="B276" t="s">
         <v>22</v>
       </c>
-      <c r="C276" s="55">
+      <c r="C276">
         <v>1</v>
       </c>
     </row>
@@ -11042,7 +11048,7 @@
       <c r="A277" t="s">
         <v>731</v>
       </c>
-      <c r="C277" s="55">
+      <c r="C277">
         <v>1</v>
       </c>
     </row>
@@ -11053,7 +11059,7 @@
       <c r="B278" t="s">
         <v>16</v>
       </c>
-      <c r="C278" s="55">
+      <c r="C278">
         <v>1</v>
       </c>
     </row>
@@ -11061,7 +11067,7 @@
       <c r="A279" t="s">
         <v>732</v>
       </c>
-      <c r="C279" s="55">
+      <c r="C279">
         <v>1</v>
       </c>
     </row>
@@ -11072,7 +11078,7 @@
       <c r="B280" t="s">
         <v>98</v>
       </c>
-      <c r="C280" s="55">
+      <c r="C280">
         <v>1</v>
       </c>
     </row>
@@ -11080,7 +11086,7 @@
       <c r="A281" t="s">
         <v>733</v>
       </c>
-      <c r="C281" s="55">
+      <c r="C281">
         <v>1</v>
       </c>
     </row>
@@ -11091,7 +11097,7 @@
       <c r="B282" t="s">
         <v>22</v>
       </c>
-      <c r="C282" s="55">
+      <c r="C282">
         <v>1</v>
       </c>
     </row>
@@ -11099,7 +11105,7 @@
       <c r="A283" t="s">
         <v>734</v>
       </c>
-      <c r="C283" s="55">
+      <c r="C283">
         <v>1</v>
       </c>
     </row>
@@ -11110,7 +11116,7 @@
       <c r="B284" t="s">
         <v>591</v>
       </c>
-      <c r="C284" s="55">
+      <c r="C284">
         <v>1</v>
       </c>
     </row>
@@ -11118,7 +11124,7 @@
       <c r="A285" t="s">
         <v>735</v>
       </c>
-      <c r="C285" s="55">
+      <c r="C285">
         <v>1</v>
       </c>
     </row>
@@ -11129,7 +11135,7 @@
       <c r="B286" t="s">
         <v>22</v>
       </c>
-      <c r="C286" s="55">
+      <c r="C286">
         <v>1</v>
       </c>
     </row>
@@ -11137,7 +11143,7 @@
       <c r="A287" t="s">
         <v>736</v>
       </c>
-      <c r="C287" s="55">
+      <c r="C287">
         <v>1</v>
       </c>
     </row>
@@ -11148,7 +11154,7 @@
       <c r="B288" t="s">
         <v>591</v>
       </c>
-      <c r="C288" s="55">
+      <c r="C288">
         <v>1</v>
       </c>
     </row>
@@ -11156,7 +11162,7 @@
       <c r="A289" t="s">
         <v>737</v>
       </c>
-      <c r="C289" s="55">
+      <c r="C289">
         <v>1</v>
       </c>
     </row>
@@ -11167,7 +11173,7 @@
       <c r="B290" t="s">
         <v>98</v>
       </c>
-      <c r="C290" s="55">
+      <c r="C290">
         <v>1</v>
       </c>
     </row>
@@ -11175,7 +11181,7 @@
       <c r="A291" t="s">
         <v>738</v>
       </c>
-      <c r="C291" s="55">
+      <c r="C291">
         <v>1</v>
       </c>
     </row>
@@ -11186,7 +11192,7 @@
       <c r="B292" t="s">
         <v>22</v>
       </c>
-      <c r="C292" s="55">
+      <c r="C292">
         <v>1</v>
       </c>
     </row>
@@ -11194,7 +11200,7 @@
       <c r="A293" t="s">
         <v>739</v>
       </c>
-      <c r="C293" s="55">
+      <c r="C293">
         <v>1</v>
       </c>
     </row>
@@ -11205,7 +11211,7 @@
       <c r="B294" t="s">
         <v>16</v>
       </c>
-      <c r="C294" s="55">
+      <c r="C294">
         <v>1</v>
       </c>
     </row>
@@ -11213,7 +11219,7 @@
       <c r="A295" t="s">
         <v>740</v>
       </c>
-      <c r="C295" s="55">
+      <c r="C295">
         <v>1</v>
       </c>
     </row>
@@ -11224,7 +11230,7 @@
       <c r="B296" t="s">
         <v>22</v>
       </c>
-      <c r="C296" s="55">
+      <c r="C296">
         <v>1</v>
       </c>
     </row>
@@ -11232,7 +11238,7 @@
       <c r="A297" t="s">
         <v>741</v>
       </c>
-      <c r="C297" s="55">
+      <c r="C297">
         <v>1</v>
       </c>
     </row>
@@ -11243,7 +11249,7 @@
       <c r="B298" t="s">
         <v>22</v>
       </c>
-      <c r="C298" s="55">
+      <c r="C298">
         <v>1</v>
       </c>
     </row>
@@ -11251,7 +11257,7 @@
       <c r="A299" t="s">
         <v>742</v>
       </c>
-      <c r="C299" s="55">
+      <c r="C299">
         <v>1</v>
       </c>
     </row>
@@ -11262,7 +11268,7 @@
       <c r="B300" t="s">
         <v>16</v>
       </c>
-      <c r="C300" s="55">
+      <c r="C300">
         <v>1</v>
       </c>
     </row>
@@ -11270,7 +11276,7 @@
       <c r="A301" t="s">
         <v>743</v>
       </c>
-      <c r="C301" s="55">
+      <c r="C301">
         <v>1</v>
       </c>
     </row>
@@ -11281,7 +11287,7 @@
       <c r="B302" t="s">
         <v>22</v>
       </c>
-      <c r="C302" s="55">
+      <c r="C302">
         <v>1</v>
       </c>
     </row>
@@ -11289,7 +11295,7 @@
       <c r="A303" t="s">
         <v>744</v>
       </c>
-      <c r="C303" s="55">
+      <c r="C303">
         <v>1</v>
       </c>
     </row>
@@ -11300,7 +11306,7 @@
       <c r="B304" t="s">
         <v>16</v>
       </c>
-      <c r="C304" s="55">
+      <c r="C304">
         <v>1</v>
       </c>
     </row>
@@ -11308,7 +11314,7 @@
       <c r="A305" t="s">
         <v>745</v>
       </c>
-      <c r="C305" s="55">
+      <c r="C305">
         <v>1</v>
       </c>
     </row>
@@ -11319,7 +11325,7 @@
       <c r="B306" t="s">
         <v>98</v>
       </c>
-      <c r="C306" s="55">
+      <c r="C306">
         <v>1</v>
       </c>
     </row>
@@ -11327,7 +11333,7 @@
       <c r="A307" t="s">
         <v>746</v>
       </c>
-      <c r="C307" s="55">
+      <c r="C307">
         <v>1</v>
       </c>
     </row>
@@ -11338,7 +11344,7 @@
       <c r="B308" t="s">
         <v>22</v>
       </c>
-      <c r="C308" s="55">
+      <c r="C308">
         <v>1</v>
       </c>
     </row>
@@ -11346,7 +11352,7 @@
       <c r="A309" t="s">
         <v>747</v>
       </c>
-      <c r="C309" s="55">
+      <c r="C309">
         <v>1</v>
       </c>
     </row>
@@ -11357,7 +11363,7 @@
       <c r="B310" t="s">
         <v>22</v>
       </c>
-      <c r="C310" s="55">
+      <c r="C310">
         <v>1</v>
       </c>
     </row>
@@ -11365,7 +11371,7 @@
       <c r="A311" t="s">
         <v>748</v>
       </c>
-      <c r="C311" s="55">
+      <c r="C311">
         <v>1</v>
       </c>
     </row>
@@ -11376,7 +11382,7 @@
       <c r="B312" t="s">
         <v>22</v>
       </c>
-      <c r="C312" s="55">
+      <c r="C312">
         <v>1</v>
       </c>
     </row>
@@ -11384,7 +11390,7 @@
       <c r="A313" t="s">
         <v>749</v>
       </c>
-      <c r="C313" s="55">
+      <c r="C313">
         <v>1</v>
       </c>
     </row>
@@ -11395,7 +11401,7 @@
       <c r="B314" t="s">
         <v>591</v>
       </c>
-      <c r="C314" s="55">
+      <c r="C314">
         <v>1</v>
       </c>
     </row>
@@ -11403,7 +11409,7 @@
       <c r="A315" t="s">
         <v>750</v>
       </c>
-      <c r="C315" s="55">
+      <c r="C315">
         <v>1</v>
       </c>
     </row>
@@ -11414,7 +11420,7 @@
       <c r="B316" t="s">
         <v>22</v>
       </c>
-      <c r="C316" s="55">
+      <c r="C316">
         <v>1</v>
       </c>
     </row>
@@ -11422,7 +11428,7 @@
       <c r="A317" t="s">
         <v>751</v>
       </c>
-      <c r="C317" s="55">
+      <c r="C317">
         <v>1</v>
       </c>
     </row>
@@ -11433,7 +11439,7 @@
       <c r="B318" t="s">
         <v>22</v>
       </c>
-      <c r="C318" s="55">
+      <c r="C318">
         <v>1</v>
       </c>
     </row>
@@ -11441,7 +11447,7 @@
       <c r="A319" t="s">
         <v>752</v>
       </c>
-      <c r="C319" s="55">
+      <c r="C319">
         <v>1</v>
       </c>
     </row>
@@ -11452,7 +11458,7 @@
       <c r="B320" t="s">
         <v>591</v>
       </c>
-      <c r="C320" s="55">
+      <c r="C320">
         <v>1</v>
       </c>
     </row>
@@ -11460,7 +11466,7 @@
       <c r="A321" t="s">
         <v>753</v>
       </c>
-      <c r="C321" s="55">
+      <c r="C321">
         <v>1</v>
       </c>
     </row>
@@ -11471,7 +11477,7 @@
       <c r="B322" t="s">
         <v>16</v>
       </c>
-      <c r="C322" s="55">
+      <c r="C322">
         <v>1</v>
       </c>
     </row>
@@ -11479,7 +11485,7 @@
       <c r="A323" t="s">
         <v>754</v>
       </c>
-      <c r="C323" s="55">
+      <c r="C323">
         <v>1</v>
       </c>
     </row>
@@ -11490,7 +11496,7 @@
       <c r="B324" t="s">
         <v>16</v>
       </c>
-      <c r="C324" s="55">
+      <c r="C324">
         <v>1</v>
       </c>
     </row>
@@ -11498,7 +11504,7 @@
       <c r="A325" t="s">
         <v>755</v>
       </c>
-      <c r="C325" s="55">
+      <c r="C325">
         <v>1</v>
       </c>
     </row>
@@ -11509,7 +11515,7 @@
       <c r="B326" t="s">
         <v>16</v>
       </c>
-      <c r="C326" s="55">
+      <c r="C326">
         <v>1</v>
       </c>
     </row>
@@ -11517,7 +11523,7 @@
       <c r="A327" t="s">
         <v>756</v>
       </c>
-      <c r="C327" s="55">
+      <c r="C327">
         <v>1</v>
       </c>
     </row>
@@ -11528,7 +11534,7 @@
       <c r="B328" t="s">
         <v>16</v>
       </c>
-      <c r="C328" s="55">
+      <c r="C328">
         <v>1</v>
       </c>
     </row>
@@ -11536,7 +11542,7 @@
       <c r="A329" t="s">
         <v>757</v>
       </c>
-      <c r="C329" s="55">
+      <c r="C329">
         <v>1</v>
       </c>
     </row>
@@ -11547,7 +11553,7 @@
       <c r="B330" t="s">
         <v>591</v>
       </c>
-      <c r="C330" s="55">
+      <c r="C330">
         <v>1</v>
       </c>
     </row>
@@ -11555,7 +11561,7 @@
       <c r="A331" t="s">
         <v>758</v>
       </c>
-      <c r="C331" s="55">
+      <c r="C331">
         <v>1</v>
       </c>
     </row>
@@ -11566,7 +11572,7 @@
       <c r="B332" t="s">
         <v>22</v>
       </c>
-      <c r="C332" s="55">
+      <c r="C332">
         <v>1</v>
       </c>
     </row>
@@ -11574,7 +11580,7 @@
       <c r="A333" t="s">
         <v>759</v>
       </c>
-      <c r="C333" s="55">
+      <c r="C333">
         <v>1</v>
       </c>
     </row>
@@ -11585,7 +11591,7 @@
       <c r="B334" t="s">
         <v>16</v>
       </c>
-      <c r="C334" s="55">
+      <c r="C334">
         <v>1</v>
       </c>
     </row>
@@ -11593,7 +11599,7 @@
       <c r="A335" t="s">
         <v>760</v>
       </c>
-      <c r="C335" s="55">
+      <c r="C335">
         <v>1</v>
       </c>
     </row>
@@ -11604,7 +11610,7 @@
       <c r="B336" t="s">
         <v>591</v>
       </c>
-      <c r="C336" s="55">
+      <c r="C336">
         <v>1</v>
       </c>
     </row>
@@ -11612,7 +11618,7 @@
       <c r="A337" t="s">
         <v>761</v>
       </c>
-      <c r="C337" s="55">
+      <c r="C337">
         <v>1</v>
       </c>
     </row>
@@ -11623,7 +11629,7 @@
       <c r="B338" t="s">
         <v>16</v>
       </c>
-      <c r="C338" s="55">
+      <c r="C338">
         <v>1</v>
       </c>
     </row>
@@ -11631,7 +11637,7 @@
       <c r="A339" t="s">
         <v>762</v>
       </c>
-      <c r="C339" s="55">
+      <c r="C339">
         <v>1</v>
       </c>
     </row>
@@ -11642,7 +11648,7 @@
       <c r="B340" t="s">
         <v>16</v>
       </c>
-      <c r="C340" s="55">
+      <c r="C340">
         <v>1</v>
       </c>
     </row>
@@ -11650,7 +11656,7 @@
       <c r="A341" t="s">
         <v>763</v>
       </c>
-      <c r="C341" s="55">
+      <c r="C341">
         <v>1</v>
       </c>
     </row>
@@ -11661,7 +11667,7 @@
       <c r="B342" t="s">
         <v>591</v>
       </c>
-      <c r="C342" s="55">
+      <c r="C342">
         <v>1</v>
       </c>
     </row>
@@ -11669,7 +11675,7 @@
       <c r="A343" t="s">
         <v>764</v>
       </c>
-      <c r="C343" s="55">
+      <c r="C343">
         <v>1</v>
       </c>
     </row>
@@ -11680,7 +11686,7 @@
       <c r="B344" t="s">
         <v>98</v>
       </c>
-      <c r="C344" s="55">
+      <c r="C344">
         <v>1</v>
       </c>
     </row>
@@ -11688,7 +11694,7 @@
       <c r="A345" t="s">
         <v>765</v>
       </c>
-      <c r="C345" s="55">
+      <c r="C345">
         <v>1</v>
       </c>
     </row>
@@ -11699,7 +11705,7 @@
       <c r="B346" t="s">
         <v>591</v>
       </c>
-      <c r="C346" s="55">
+      <c r="C346">
         <v>1</v>
       </c>
     </row>
@@ -11707,7 +11713,7 @@
       <c r="A347" t="s">
         <v>766</v>
       </c>
-      <c r="C347" s="55">
+      <c r="C347">
         <v>1</v>
       </c>
     </row>
@@ -11718,7 +11724,7 @@
       <c r="B348" t="s">
         <v>16</v>
       </c>
-      <c r="C348" s="55">
+      <c r="C348">
         <v>1</v>
       </c>
     </row>
@@ -11726,7 +11732,7 @@
       <c r="A349" t="s">
         <v>767</v>
       </c>
-      <c r="C349" s="55">
+      <c r="C349">
         <v>1</v>
       </c>
     </row>
@@ -11737,7 +11743,7 @@
       <c r="B350" t="s">
         <v>16</v>
       </c>
-      <c r="C350" s="55">
+      <c r="C350">
         <v>1</v>
       </c>
     </row>
@@ -11745,7 +11751,7 @@
       <c r="A351" t="s">
         <v>768</v>
       </c>
-      <c r="C351" s="55">
+      <c r="C351">
         <v>1</v>
       </c>
     </row>
@@ -11756,7 +11762,7 @@
       <c r="B352" t="s">
         <v>22</v>
       </c>
-      <c r="C352" s="55">
+      <c r="C352">
         <v>1</v>
       </c>
     </row>
@@ -11764,7 +11770,7 @@
       <c r="A353" t="s">
         <v>769</v>
       </c>
-      <c r="C353" s="55">
+      <c r="C353">
         <v>1</v>
       </c>
     </row>
@@ -11775,7 +11781,7 @@
       <c r="B354" t="s">
         <v>22</v>
       </c>
-      <c r="C354" s="55">
+      <c r="C354">
         <v>1</v>
       </c>
     </row>
@@ -11783,7 +11789,7 @@
       <c r="A355" t="s">
         <v>770</v>
       </c>
-      <c r="C355" s="55">
+      <c r="C355">
         <v>1</v>
       </c>
     </row>
@@ -11794,7 +11800,7 @@
       <c r="B356" t="s">
         <v>16</v>
       </c>
-      <c r="C356" s="55">
+      <c r="C356">
         <v>1</v>
       </c>
     </row>
@@ -11802,7 +11808,7 @@
       <c r="A357" t="s">
         <v>771</v>
       </c>
-      <c r="C357" s="55">
+      <c r="C357">
         <v>1</v>
       </c>
     </row>
@@ -11813,7 +11819,7 @@
       <c r="B358" t="s">
         <v>16</v>
       </c>
-      <c r="C358" s="55">
+      <c r="C358">
         <v>1</v>
       </c>
     </row>
@@ -11821,7 +11827,7 @@
       <c r="A359" t="s">
         <v>772</v>
       </c>
-      <c r="C359" s="55">
+      <c r="C359">
         <v>1</v>
       </c>
     </row>
@@ -11832,7 +11838,7 @@
       <c r="B360" t="s">
         <v>591</v>
       </c>
-      <c r="C360" s="55">
+      <c r="C360">
         <v>1</v>
       </c>
     </row>
@@ -11840,7 +11846,7 @@
       <c r="A361" t="s">
         <v>773</v>
       </c>
-      <c r="C361" s="55">
+      <c r="C361">
         <v>1</v>
       </c>
     </row>
@@ -11851,7 +11857,7 @@
       <c r="B362" t="s">
         <v>16</v>
       </c>
-      <c r="C362" s="55">
+      <c r="C362">
         <v>1</v>
       </c>
     </row>
@@ -11859,7 +11865,7 @@
       <c r="A363" t="s">
         <v>774</v>
       </c>
-      <c r="C363" s="55">
+      <c r="C363">
         <v>1</v>
       </c>
     </row>
@@ -11870,7 +11876,7 @@
       <c r="B364" t="s">
         <v>16</v>
       </c>
-      <c r="C364" s="55">
+      <c r="C364">
         <v>1</v>
       </c>
     </row>
@@ -11878,7 +11884,7 @@
       <c r="A365" t="s">
         <v>775</v>
       </c>
-      <c r="C365" s="55">
+      <c r="C365">
         <v>1</v>
       </c>
     </row>
@@ -11889,7 +11895,7 @@
       <c r="B366" t="s">
         <v>16</v>
       </c>
-      <c r="C366" s="55">
+      <c r="C366">
         <v>1</v>
       </c>
     </row>
@@ -11897,7 +11903,7 @@
       <c r="A367" t="s">
         <v>776</v>
       </c>
-      <c r="C367" s="55">
+      <c r="C367">
         <v>1</v>
       </c>
     </row>
@@ -11908,7 +11914,7 @@
       <c r="B368" t="s">
         <v>22</v>
       </c>
-      <c r="C368" s="55">
+      <c r="C368">
         <v>1</v>
       </c>
     </row>
@@ -11916,7 +11922,7 @@
       <c r="A369" t="s">
         <v>777</v>
       </c>
-      <c r="C369" s="55">
+      <c r="C369">
         <v>1</v>
       </c>
     </row>
@@ -11927,7 +11933,7 @@
       <c r="B370" t="s">
         <v>591</v>
       </c>
-      <c r="C370" s="55">
+      <c r="C370">
         <v>1</v>
       </c>
     </row>
@@ -11935,7 +11941,7 @@
       <c r="A371" t="s">
         <v>778</v>
       </c>
-      <c r="C371" s="55">
+      <c r="C371">
         <v>1</v>
       </c>
     </row>
@@ -11946,7 +11952,7 @@
       <c r="B372" t="s">
         <v>591</v>
       </c>
-      <c r="C372" s="55">
+      <c r="C372">
         <v>1</v>
       </c>
     </row>
@@ -11954,7 +11960,7 @@
       <c r="A373" t="s">
         <v>779</v>
       </c>
-      <c r="C373" s="55">
+      <c r="C373">
         <v>1</v>
       </c>
     </row>
@@ -11965,7 +11971,7 @@
       <c r="B374" t="s">
         <v>22</v>
       </c>
-      <c r="C374" s="55">
+      <c r="C374">
         <v>1</v>
       </c>
     </row>
@@ -11973,7 +11979,7 @@
       <c r="A375" t="s">
         <v>780</v>
       </c>
-      <c r="C375" s="55">
+      <c r="C375">
         <v>1</v>
       </c>
     </row>
@@ -11984,7 +11990,7 @@
       <c r="B376" t="s">
         <v>16</v>
       </c>
-      <c r="C376" s="55">
+      <c r="C376">
         <v>1</v>
       </c>
     </row>
@@ -11992,7 +11998,7 @@
       <c r="A377" t="s">
         <v>781</v>
       </c>
-      <c r="C377" s="55">
+      <c r="C377">
         <v>1</v>
       </c>
     </row>
@@ -12003,7 +12009,7 @@
       <c r="B378" t="s">
         <v>22</v>
       </c>
-      <c r="C378" s="55">
+      <c r="C378">
         <v>1</v>
       </c>
     </row>
@@ -12011,7 +12017,7 @@
       <c r="A379" t="s">
         <v>782</v>
       </c>
-      <c r="C379" s="55">
+      <c r="C379">
         <v>1</v>
       </c>
     </row>
@@ -12022,7 +12028,7 @@
       <c r="B380" t="s">
         <v>22</v>
       </c>
-      <c r="C380" s="55">
+      <c r="C380">
         <v>1</v>
       </c>
     </row>
@@ -12030,7 +12036,7 @@
       <c r="A381" t="s">
         <v>783</v>
       </c>
-      <c r="C381" s="55">
+      <c r="C381">
         <v>1</v>
       </c>
     </row>
@@ -12041,7 +12047,7 @@
       <c r="B382" t="s">
         <v>591</v>
       </c>
-      <c r="C382" s="55">
+      <c r="C382">
         <v>1</v>
       </c>
     </row>
@@ -12049,7 +12055,7 @@
       <c r="A383" t="s">
         <v>784</v>
       </c>
-      <c r="C383" s="55">
+      <c r="C383">
         <v>1</v>
       </c>
     </row>
@@ -12060,19 +12066,17 @@
       <c r="B384" t="s">
         <v>591</v>
       </c>
-      <c r="C384" s="55"/>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>785</v>
       </c>
-      <c r="C385" s="55"/>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>592</v>
       </c>
-      <c r="C386" s="55">
+      <c r="C386">
         <v>190</v>
       </c>
     </row>
@@ -12126,11 +12130,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5798A0F0-96CE-49CB-9B2C-95EC91751F5C}">
   <dimension ref="A1:L1048574"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B172" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B124" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J119" sqref="J119"/>
+      <selection pane="bottomRight" activeCell="B127" sqref="B127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -15741,7 +15745,7 @@
         <v>122</v>
       </c>
       <c r="B124" s="17" t="s">
-        <v>381</v>
+        <v>812</v>
       </c>
       <c r="C124" s="5" t="s">
         <v>382</v>
@@ -18896,7 +18900,6 @@
       <c r="I1048574" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:L308" xr:uid="{5798A0F0-96CE-49CB-9B2C-95EC91751F5C}"/>
   <mergeCells count="1">
     <mergeCell ref="A1:L1"/>
   </mergeCells>
